--- a/terms/teethTerms.xlsx
+++ b/terms/teethTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BC0B3E-D4A3-A342-BBB1-D1A5F902C2E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2748AB5-216C-4949-A8FA-8C38490C61CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" firstSheet="7" activeTab="11" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
   </bookViews>
@@ -5461,7 +5461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0322EBD7-AE0A-5D44-ABF9-987CE7BECD4A}">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F69" sqref="F69:F75"/>
     </sheetView>
   </sheetViews>

--- a/terms/teethTerms.xlsx
+++ b/terms/teethTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2748AB5-216C-4949-A8FA-8C38490C61CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA705BB-9D8D-4FB4-865A-B910FB534817}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" firstSheet="7" activeTab="11" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="6" activeTab="9" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="molars" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={ADC1C8A0-2578-4F3A-9919-7DAAEBCE30C3}</author>
+  </authors>
+  <commentList>
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{ADC1C8A0-2578-4F3A-9919-7DAAEBCE30C3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Should these be in the premolar axis tab?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="1173">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -3519,15 +3537,58 @@
   </si>
   <si>
     <t>talonid' and ('part of' some 'molariform tooth')</t>
+  </si>
+  <si>
+    <t>left side' and ('part of' some 'set of upper jaw teeth')</t>
+  </si>
+  <si>
+    <t>right side' and ('part of' some 'set of upper jaw teeth')</t>
+  </si>
+  <si>
+    <t>Length of left upper tooth row</t>
+  </si>
+  <si>
+    <t>Length of right upper tooth row</t>
+  </si>
+  <si>
+    <t>Length of left lower tooth row</t>
+  </si>
+  <si>
+    <t>Length of right lower tooth row</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of left upper tooth row</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of right upper tooth row</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of left lower tooth row</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of right lower tooth row</t>
+  </si>
+  <si>
+    <t>right side' and ('part of' some 'set of lower jaw teeth')</t>
+  </si>
+  <si>
+    <t>left side' and ('part of' some 'set of lower jaw teeth')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3585,24 +3646,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3618,6 +3682,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Amanda Peng" id="{C2980CF6-D7B8-4513-A6D9-1E0A3D4EA807}" userId="Amanda Peng" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3915,6 +3985,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A20" dT="2021-05-14T17:36:02.38" personId="{C2980CF6-D7B8-4513-A6D9-1E0A3D4EA807}" id="{ADC1C8A0-2578-4F3A-9919-7DAAEBCE30C3}">
+    <text>Should these be in the premolar axis tab?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CA24E7-5FD2-BC4A-AA63-F254C54AF71B}">
   <dimension ref="A1:K97"/>
@@ -3923,12 +4001,12 @@
       <selection activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="16384" width="10.8125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3954,7 +4032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B2" s="6" t="s">
         <v>573</v>
       </c>
@@ -3962,7 +4040,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B3" s="6" t="s">
         <v>573</v>
       </c>
@@ -3970,7 +4048,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B4" s="6" t="s">
         <v>573</v>
       </c>
@@ -3978,7 +4056,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>573</v>
       </c>
@@ -3989,7 +4067,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B6" s="6" t="s">
         <v>573</v>
       </c>
@@ -3997,7 +4075,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B7" s="6" t="s">
         <v>573</v>
       </c>
@@ -4008,7 +4086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B8" s="6" t="s">
         <v>573</v>
       </c>
@@ -4017,7 +4095,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B9" s="6" t="s">
         <v>573</v>
       </c>
@@ -4026,7 +4104,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B10" s="6" t="s">
         <v>573</v>
       </c>
@@ -4035,7 +4113,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B11" s="6" t="s">
         <v>573</v>
       </c>
@@ -4045,7 +4123,7 @@
       <c r="I11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B12" s="6" t="s">
         <v>573</v>
       </c>
@@ -4058,7 +4136,7 @@
       <c r="I12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B13" s="6" t="s">
         <v>573</v>
       </c>
@@ -4068,7 +4146,7 @@
       <c r="I13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B14" s="6" t="s">
         <v>573</v>
       </c>
@@ -4081,7 +4159,7 @@
       <c r="I14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B15" s="6" t="s">
         <v>573</v>
       </c>
@@ -4091,7 +4169,7 @@
       <c r="I15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B16" s="6" t="s">
         <v>573</v>
       </c>
@@ -4101,7 +4179,7 @@
       <c r="I16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B17" s="6" t="s">
         <v>573</v>
       </c>
@@ -4111,7 +4189,7 @@
       <c r="I17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B18" s="6" t="s">
         <v>573</v>
       </c>
@@ -4121,7 +4199,7 @@
       <c r="I18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B19" s="6" t="s">
         <v>573</v>
       </c>
@@ -4131,7 +4209,7 @@
       <c r="I19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B20" s="6" t="s">
         <v>573</v>
       </c>
@@ -4141,7 +4219,7 @@
       <c r="I20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B21" s="6" t="s">
         <v>573</v>
       </c>
@@ -4151,7 +4229,7 @@
       <c r="I21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B22" s="6" t="s">
         <v>573</v>
       </c>
@@ -4161,7 +4239,7 @@
       <c r="I22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B23" s="6" t="s">
         <v>573</v>
       </c>
@@ -4169,7 +4247,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B24" s="6" t="s">
         <v>573</v>
       </c>
@@ -4178,7 +4256,7 @@
       </c>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B25" s="6" t="s">
         <v>573</v>
       </c>
@@ -4187,7 +4265,7 @@
       </c>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B26" s="6" t="s">
         <v>573</v>
       </c>
@@ -4199,7 +4277,7 @@
       </c>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B27" s="6" t="s">
         <v>573</v>
       </c>
@@ -4208,7 +4286,7 @@
       </c>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B28" s="6" t="s">
         <v>573</v>
       </c>
@@ -4220,7 +4298,7 @@
       </c>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B29" s="6" t="s">
         <v>573</v>
       </c>
@@ -4229,7 +4307,7 @@
       </c>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B30" s="6" t="s">
         <v>573</v>
       </c>
@@ -4238,7 +4316,7 @@
       </c>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B31" s="6" t="s">
         <v>573</v>
       </c>
@@ -4247,7 +4325,7 @@
       </c>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B32" s="6" t="s">
         <v>573</v>
       </c>
@@ -4256,7 +4334,7 @@
       </c>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B33" s="6" t="s">
         <v>573</v>
       </c>
@@ -4268,7 +4346,7 @@
       </c>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B34" s="6" t="s">
         <v>573</v>
       </c>
@@ -4277,7 +4355,7 @@
       </c>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B35" s="6" t="s">
         <v>573</v>
       </c>
@@ -4289,7 +4367,7 @@
       </c>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B36" s="6" t="s">
         <v>573</v>
       </c>
@@ -4298,7 +4376,7 @@
       </c>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B37" s="6" t="s">
         <v>573</v>
       </c>
@@ -4307,7 +4385,7 @@
       </c>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B38" s="6" t="s">
         <v>573</v>
       </c>
@@ -4316,7 +4394,7 @@
       </c>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B39" s="6" t="s">
         <v>573</v>
       </c>
@@ -4325,7 +4403,7 @@
       </c>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B40" s="6" t="s">
         <v>573</v>
       </c>
@@ -4334,7 +4412,7 @@
       </c>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B41" s="6" t="s">
         <v>573</v>
       </c>
@@ -4343,7 +4421,7 @@
       </c>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B42" s="6" t="s">
         <v>573</v>
       </c>
@@ -4352,7 +4430,7 @@
       </c>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B43" s="6" t="s">
         <v>573</v>
       </c>
@@ -4360,7 +4438,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B44" s="6" t="s">
         <v>573</v>
       </c>
@@ -4368,7 +4446,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B45" s="6" t="s">
         <v>573</v>
       </c>
@@ -4376,7 +4454,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B46" s="6" t="s">
         <v>573</v>
       </c>
@@ -4384,7 +4462,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B47" s="6" t="s">
         <v>573</v>
       </c>
@@ -4395,7 +4473,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B48" s="6" t="s">
         <v>573</v>
       </c>
@@ -4406,7 +4484,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B49" s="6" t="s">
         <v>573</v>
       </c>
@@ -4414,7 +4492,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B50" s="6" t="s">
         <v>573</v>
       </c>
@@ -4422,7 +4500,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B51" s="6" t="s">
         <v>573</v>
       </c>
@@ -4431,7 +4509,7 @@
       </c>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B52" s="6" t="s">
         <v>573</v>
       </c>
@@ -4439,7 +4517,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B53" s="6" t="s">
         <v>573</v>
       </c>
@@ -4448,7 +4526,7 @@
       </c>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B54" s="6" t="s">
         <v>573</v>
       </c>
@@ -4457,7 +4535,7 @@
       </c>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B55" s="6" t="s">
         <v>573</v>
       </c>
@@ -4466,7 +4544,7 @@
       </c>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B56" s="6" t="s">
         <v>573</v>
       </c>
@@ -4475,7 +4553,7 @@
       </c>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B57" s="6" t="s">
         <v>573</v>
       </c>
@@ -4483,7 +4561,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B58" s="6" t="s">
         <v>573</v>
       </c>
@@ -4491,7 +4569,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B59" s="6" t="s">
         <v>573</v>
       </c>
@@ -4499,7 +4577,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B60" s="6" t="s">
         <v>573</v>
       </c>
@@ -4507,7 +4585,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B61" s="6" t="s">
         <v>573</v>
       </c>
@@ -4515,7 +4593,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B62" s="6" t="s">
         <v>573</v>
       </c>
@@ -4523,7 +4601,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B63" s="6" t="s">
         <v>573</v>
       </c>
@@ -4531,7 +4609,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B64" s="6" t="s">
         <v>573</v>
       </c>
@@ -4539,7 +4617,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B65" s="6" t="s">
         <v>573</v>
       </c>
@@ -4547,7 +4625,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B66" s="6" t="s">
         <v>573</v>
       </c>
@@ -4555,7 +4633,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B67" s="6" t="s">
         <v>573</v>
       </c>
@@ -4563,7 +4641,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B68" s="6" t="s">
         <v>573</v>
       </c>
@@ -4571,7 +4649,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B69" s="6" t="s">
         <v>573</v>
       </c>
@@ -4579,7 +4657,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B70" s="6" t="s">
         <v>573</v>
       </c>
@@ -4587,7 +4665,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B71" s="6" t="s">
         <v>573</v>
       </c>
@@ -4595,7 +4673,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B72" s="6" t="s">
         <v>573</v>
       </c>
@@ -4603,7 +4681,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B73" s="6" t="s">
         <v>573</v>
       </c>
@@ -4611,7 +4689,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B74" s="6" t="s">
         <v>573</v>
       </c>
@@ -4619,7 +4697,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B75" s="6" t="s">
         <v>573</v>
       </c>
@@ -4627,7 +4705,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B76" s="6" t="s">
         <v>573</v>
       </c>
@@ -4635,7 +4713,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B77" s="6" t="s">
         <v>573</v>
       </c>
@@ -4643,7 +4721,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B78" s="6" t="s">
         <v>573</v>
       </c>
@@ -4651,7 +4729,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B79" s="6" t="s">
         <v>573</v>
       </c>
@@ -4659,7 +4737,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B80" s="6" t="s">
         <v>573</v>
       </c>
@@ -4667,7 +4745,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B81" s="6" t="s">
         <v>573</v>
       </c>
@@ -4675,7 +4753,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B82" s="6" t="s">
         <v>573</v>
       </c>
@@ -4683,7 +4761,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B83" s="6" t="s">
         <v>573</v>
       </c>
@@ -4691,7 +4769,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B84" s="6" t="s">
         <v>573</v>
       </c>
@@ -4699,7 +4777,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B85" s="6" t="s">
         <v>573</v>
       </c>
@@ -4707,7 +4785,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B86" s="6" t="s">
         <v>573</v>
       </c>
@@ -4715,7 +4793,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B87" s="6" t="s">
         <v>573</v>
       </c>
@@ -4723,7 +4801,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B88" s="6" t="s">
         <v>573</v>
       </c>
@@ -4731,7 +4809,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B89" s="6" t="s">
         <v>573</v>
       </c>
@@ -4739,7 +4817,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B90" s="6" t="s">
         <v>573</v>
       </c>
@@ -4747,7 +4825,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B91" s="6" t="s">
         <v>573</v>
       </c>
@@ -4755,7 +4833,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B92" s="6" t="s">
         <v>573</v>
       </c>
@@ -4763,7 +4841,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B93" s="6" t="s">
         <v>573</v>
       </c>
@@ -4771,7 +4849,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B94" s="6" t="s">
         <v>573</v>
       </c>
@@ -4779,7 +4857,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B95" s="6" t="s">
         <v>573</v>
       </c>
@@ -4787,7 +4865,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B96" s="6" t="s">
         <v>573</v>
       </c>
@@ -4795,7 +4873,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B97" s="6" t="s">
         <v>573</v>
       </c>
@@ -4809,16 +4887,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E1BF5A-9D40-754F-98C1-3B489ED02366}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E1BF5A-9D40-754F-98C1-3B489ED02366}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>587</v>
       </c>
@@ -4832,7 +4913,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>528</v>
       </c>
@@ -4846,7 +4927,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>529</v>
       </c>
@@ -4860,7 +4941,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>530</v>
       </c>
@@ -4874,7 +4955,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>531</v>
       </c>
@@ -4888,7 +4969,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>532</v>
       </c>
@@ -4902,7 +4983,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>533</v>
       </c>
@@ -4916,7 +4997,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>534</v>
       </c>
@@ -4930,7 +5011,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>535</v>
       </c>
@@ -4944,7 +5025,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>536</v>
       </c>
@@ -4958,7 +5039,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>537</v>
       </c>
@@ -4972,7 +5053,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>538</v>
       </c>
@@ -4986,7 +5067,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>539</v>
       </c>
@@ -5000,7 +5081,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>540</v>
       </c>
@@ -5014,7 +5095,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>581</v>
       </c>
@@ -5028,7 +5109,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>582</v>
       </c>
@@ -5042,7 +5123,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>583</v>
       </c>
@@ -5056,7 +5137,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>584</v>
       </c>
@@ -5070,7 +5151,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>585</v>
       </c>
@@ -5084,8 +5165,8 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A20" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B20" t="s">
@@ -5098,7 +5179,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="5" t="s">
         <v>67</v>
       </c>
@@ -5112,22 +5193,82 @@
         <v>1110</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A22" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B22" t="s">
+        <v>606</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A23" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B23" t="s">
+        <v>606</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B24" t="s">
+        <v>606</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B25" t="s">
+        <v>606</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05D49CD-491C-4440-858F-42EEE0666E89}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="32" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>587</v>
       </c>
@@ -5144,7 +5285,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>1111</v>
       </c>
@@ -5155,7 +5296,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>546</v>
       </c>
@@ -5166,7 +5307,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>547</v>
       </c>
@@ -5177,7 +5318,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>548</v>
       </c>
@@ -5188,7 +5329,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>549</v>
       </c>
@@ -5199,7 +5340,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>550</v>
       </c>
@@ -5210,7 +5351,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>551</v>
       </c>
@@ -5221,7 +5362,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>552</v>
       </c>
@@ -5232,7 +5373,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>553</v>
       </c>
@@ -5243,7 +5384,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>554</v>
       </c>
@@ -5254,7 +5395,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>555</v>
       </c>
@@ -5265,7 +5406,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>556</v>
       </c>
@@ -5276,7 +5417,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>557</v>
       </c>
@@ -5287,7 +5428,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>558</v>
       </c>
@@ -5298,7 +5439,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>559</v>
       </c>
@@ -5309,7 +5450,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>560</v>
       </c>
@@ -5320,7 +5461,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>561</v>
       </c>
@@ -5331,7 +5472,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>562</v>
       </c>
@@ -5342,7 +5483,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>563</v>
       </c>
@@ -5353,7 +5494,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>564</v>
       </c>
@@ -5364,7 +5505,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>565</v>
       </c>
@@ -5375,7 +5516,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>566</v>
       </c>
@@ -5386,7 +5527,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>567</v>
       </c>
@@ -5397,7 +5538,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>568</v>
       </c>
@@ -5408,7 +5549,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>569</v>
       </c>
@@ -5419,7 +5560,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>570</v>
       </c>
@@ -5430,7 +5571,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>571</v>
       </c>
@@ -5441,7 +5582,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>572</v>
       </c>
@@ -5451,6 +5592,9 @@
       <c r="C29" s="10" t="s">
         <v>1153</v>
       </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B30" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5459,15 +5603,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0322EBD7-AE0A-5D44-ABF9-987CE7BECD4A}">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69:F75"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -5514,7 +5658,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5534,7 +5678,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5554,7 +5698,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -5574,7 +5718,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -5594,7 +5738,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -5614,7 +5758,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -5628,7 +5772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -5642,7 +5786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -5656,7 +5800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -5670,7 +5814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -5684,7 +5828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -5698,7 +5842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
       <c r="C13" t="s">
         <v>68</v>
       </c>
@@ -5706,7 +5850,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
       <c r="C14" t="s">
         <v>70</v>
       </c>
@@ -5714,7 +5858,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
       <c r="C15" t="s">
         <v>72</v>
       </c>
@@ -5722,7 +5866,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
       <c r="C16" t="s">
         <v>74</v>
       </c>
@@ -5730,7 +5874,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C17" t="s">
         <v>76</v>
       </c>
@@ -5738,7 +5882,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C18" t="s">
         <v>78</v>
       </c>
@@ -5746,7 +5890,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C19" t="s">
         <v>80</v>
       </c>
@@ -5754,7 +5898,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C20" t="s">
         <v>82</v>
       </c>
@@ -5762,7 +5906,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C21" t="s">
         <v>84</v>
       </c>
@@ -5770,7 +5914,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C22" t="s">
         <v>86</v>
       </c>
@@ -5778,7 +5922,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C23" t="s">
         <v>88</v>
       </c>
@@ -5786,7 +5930,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C24" t="s">
         <v>90</v>
       </c>
@@ -5794,7 +5938,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C25" t="s">
         <v>92</v>
       </c>
@@ -5802,7 +5946,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C26" t="s">
         <v>94</v>
       </c>
@@ -5810,7 +5954,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C27" t="s">
         <v>96</v>
       </c>
@@ -5818,7 +5962,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C28" t="s">
         <v>98</v>
       </c>
@@ -5826,7 +5970,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C29" t="s">
         <v>100</v>
       </c>
@@ -5834,7 +5978,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C30" t="s">
         <v>102</v>
       </c>
@@ -5842,7 +5986,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C31" t="s">
         <v>104</v>
       </c>
@@ -5850,7 +5994,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C32" t="s">
         <v>106</v>
       </c>
@@ -5858,7 +6002,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C33" t="s">
         <v>108</v>
       </c>
@@ -5866,7 +6010,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C34" t="s">
         <v>110</v>
       </c>
@@ -5874,7 +6018,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C35" t="s">
         <v>112</v>
       </c>
@@ -5882,7 +6026,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C36" t="s">
         <v>114</v>
       </c>
@@ -5890,7 +6034,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C37" t="s">
         <v>116</v>
       </c>
@@ -5898,7 +6042,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C38" t="s">
         <v>118</v>
       </c>
@@ -5906,7 +6050,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C39" t="s">
         <v>120</v>
       </c>
@@ -5914,7 +6058,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C40" t="s">
         <v>122</v>
       </c>
@@ -5922,7 +6066,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C41" t="s">
         <v>124</v>
       </c>
@@ -5930,7 +6074,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C42" t="s">
         <v>126</v>
       </c>
@@ -5938,7 +6082,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C43" t="s">
         <v>128</v>
       </c>
@@ -5946,7 +6090,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C44" t="s">
         <v>130</v>
       </c>
@@ -5954,7 +6098,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C45" t="s">
         <v>132</v>
       </c>
@@ -5962,7 +6106,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C46" t="s">
         <v>134</v>
       </c>
@@ -5970,7 +6114,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C47" t="s">
         <v>136</v>
       </c>
@@ -5978,7 +6122,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -5986,7 +6130,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C49" t="s">
         <v>140</v>
       </c>
@@ -5994,7 +6138,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C50" t="s">
         <v>142</v>
       </c>
@@ -6002,7 +6146,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C51" t="s">
         <v>144</v>
       </c>
@@ -6010,7 +6154,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C52" t="s">
         <v>146</v>
       </c>
@@ -6018,7 +6162,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C53" t="s">
         <v>148</v>
       </c>
@@ -6026,7 +6170,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C54" t="s">
         <v>150</v>
       </c>
@@ -6034,7 +6178,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C55" t="s">
         <v>152</v>
       </c>
@@ -6042,7 +6186,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C56" t="s">
         <v>154</v>
       </c>
@@ -6050,7 +6194,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C57" t="s">
         <v>156</v>
       </c>
@@ -6058,7 +6202,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C58" t="s">
         <v>158</v>
       </c>
@@ -6066,7 +6210,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C59" t="s">
         <v>160</v>
       </c>
@@ -6074,7 +6218,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C60" t="s">
         <v>162</v>
       </c>
@@ -6082,7 +6226,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -6090,7 +6234,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C62" t="s">
         <v>166</v>
       </c>
@@ -6098,7 +6242,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C63" t="s">
         <v>168</v>
       </c>
@@ -6106,7 +6250,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C64" t="s">
         <v>170</v>
       </c>
@@ -6114,7 +6258,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C65" t="s">
         <v>172</v>
       </c>
@@ -6122,7 +6266,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C66" t="s">
         <v>174</v>
       </c>
@@ -6130,7 +6274,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C67" t="s">
         <v>176</v>
       </c>
@@ -6138,7 +6282,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C68" t="s">
         <v>178</v>
       </c>
@@ -6146,7 +6290,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C69" t="s">
         <v>180</v>
       </c>
@@ -6157,7 +6301,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C70" t="s">
         <v>182</v>
       </c>
@@ -6168,7 +6312,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C71" t="s">
         <v>184</v>
       </c>
@@ -6179,7 +6323,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C72" t="s">
         <v>186</v>
       </c>
@@ -6190,7 +6334,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C73" t="s">
         <v>188</v>
       </c>
@@ -6201,7 +6345,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C74" t="s">
         <v>190</v>
       </c>
@@ -6212,7 +6356,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C75" t="s">
         <v>192</v>
       </c>
@@ -6223,24 +6367,28 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C76" s="1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F76" s="12" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C77" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F77" s="11" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C78" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C79" s="1" t="s">
         <v>577</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>1162</v>
       </c>
     </row>
   </sheetData>
@@ -6256,9 +6404,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>587</v>
       </c>
@@ -6272,7 +6420,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -6286,7 +6434,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>209</v>
       </c>
@@ -6300,7 +6448,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -6314,7 +6462,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>211</v>
       </c>
@@ -6328,7 +6476,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -6342,7 +6490,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -6356,7 +6504,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>214</v>
       </c>
@@ -6370,7 +6518,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>215</v>
       </c>
@@ -6384,7 +6532,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -6398,7 +6546,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -6412,7 +6560,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -6426,7 +6574,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -6440,7 +6588,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>220</v>
       </c>
@@ -6454,7 +6602,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>221</v>
       </c>
@@ -6468,7 +6616,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>222</v>
       </c>
@@ -6482,7 +6630,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>223</v>
       </c>
@@ -6496,7 +6644,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>224</v>
       </c>
@@ -6510,7 +6658,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>225</v>
       </c>
@@ -6524,7 +6672,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>226</v>
       </c>
@@ -6538,7 +6686,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>227</v>
       </c>
@@ -6552,7 +6700,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>228</v>
       </c>
@@ -6566,7 +6714,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>229</v>
       </c>
@@ -6580,7 +6728,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>230</v>
       </c>
@@ -6594,7 +6742,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>231</v>
       </c>
@@ -6608,7 +6756,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>232</v>
       </c>
@@ -6622,7 +6770,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>233</v>
       </c>
@@ -6636,7 +6784,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>234</v>
       </c>
@@ -6650,7 +6798,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>235</v>
       </c>
@@ -6664,7 +6812,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>236</v>
       </c>
@@ -6678,7 +6826,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>237</v>
       </c>
@@ -6692,7 +6840,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>238</v>
       </c>
@@ -6706,7 +6854,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -6720,7 +6868,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>240</v>
       </c>
@@ -6734,7 +6882,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>241</v>
       </c>
@@ -6748,7 +6896,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>242</v>
       </c>
@@ -6762,7 +6910,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>243</v>
       </c>
@@ -6776,7 +6924,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>244</v>
       </c>
@@ -6790,7 +6938,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>245</v>
       </c>
@@ -6804,7 +6952,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>246</v>
       </c>
@@ -6818,7 +6966,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>247</v>
       </c>
@@ -6832,7 +6980,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>248</v>
       </c>
@@ -6846,7 +6994,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>249</v>
       </c>
@@ -6860,7 +7008,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>250</v>
       </c>
@@ -6874,7 +7022,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>251</v>
       </c>
@@ -6888,7 +7036,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>252</v>
       </c>
@@ -6902,7 +7050,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>253</v>
       </c>
@@ -6916,7 +7064,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>254</v>
       </c>
@@ -6930,7 +7078,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>255</v>
       </c>
@@ -6944,7 +7092,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>256</v>
       </c>
@@ -6958,7 +7106,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>257</v>
       </c>
@@ -6972,7 +7120,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>258</v>
       </c>
@@ -6986,7 +7134,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>259</v>
       </c>
@@ -7000,7 +7148,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>260</v>
       </c>
@@ -7014,7 +7162,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>261</v>
       </c>
@@ -7028,7 +7176,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>262</v>
       </c>
@@ -7042,7 +7190,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>263</v>
       </c>
@@ -7056,7 +7204,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>264</v>
       </c>
@@ -7070,7 +7218,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>265</v>
       </c>
@@ -7084,7 +7232,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>266</v>
       </c>
@@ -7098,7 +7246,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>267</v>
       </c>
@@ -7112,7 +7260,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>268</v>
       </c>
@@ -7126,7 +7274,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>269</v>
       </c>
@@ -7140,7 +7288,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>698</v>
       </c>
@@ -7154,7 +7302,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>271</v>
       </c>
@@ -7168,7 +7316,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>272</v>
       </c>
@@ -7182,7 +7330,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>273</v>
       </c>
@@ -7196,7 +7344,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>274</v>
       </c>
@@ -7210,7 +7358,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>275</v>
       </c>
@@ -7224,7 +7372,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>276</v>
       </c>
@@ -7238,7 +7386,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>277</v>
       </c>
@@ -7252,7 +7400,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>278</v>
       </c>
@@ -7266,7 +7414,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>279</v>
       </c>
@@ -7280,7 +7428,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>281</v>
       </c>
@@ -7294,7 +7442,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>283</v>
       </c>
@@ -7308,7 +7456,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>286</v>
       </c>
@@ -7322,7 +7470,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>287</v>
       </c>
@@ -7336,7 +7484,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>288</v>
       </c>
@@ -7350,7 +7498,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>289</v>
       </c>
@@ -7364,7 +7512,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>290</v>
       </c>
@@ -7378,7 +7526,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>291</v>
       </c>
@@ -7392,7 +7540,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>292</v>
       </c>
@@ -7406,7 +7554,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>293</v>
       </c>
@@ -7420,7 +7568,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>294</v>
       </c>
@@ -7434,7 +7582,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>295</v>
       </c>
@@ -7448,7 +7596,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>296</v>
       </c>
@@ -7462,7 +7610,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>297</v>
       </c>
@@ -7476,7 +7624,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>298</v>
       </c>
@@ -7490,7 +7638,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>299</v>
       </c>
@@ -7504,7 +7652,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>300</v>
       </c>
@@ -7518,7 +7666,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>301</v>
       </c>
@@ -7532,7 +7680,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>302</v>
       </c>
@@ -7546,7 +7694,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>294</v>
       </c>
@@ -7573,12 +7721,12 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="16384" width="10.8125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7604,7 +7752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B2" s="6" t="s">
         <v>573</v>
       </c>
@@ -7612,7 +7760,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B3" s="6" t="s">
         <v>573</v>
       </c>
@@ -7620,7 +7768,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B4" s="6" t="s">
         <v>573</v>
       </c>
@@ -7628,7 +7776,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>573</v>
       </c>
@@ -7636,7 +7784,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B6" s="6" t="s">
         <v>573</v>
       </c>
@@ -7644,7 +7792,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B7" s="6" t="s">
         <v>573</v>
       </c>
@@ -7652,7 +7800,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B8" s="6" t="s">
         <v>573</v>
       </c>
@@ -7660,7 +7808,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B9" s="6" t="s">
         <v>573</v>
       </c>
@@ -7668,7 +7816,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B10" s="6" t="s">
         <v>573</v>
       </c>
@@ -7676,7 +7824,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B11" s="6" t="s">
         <v>573</v>
       </c>
@@ -7684,7 +7832,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B12" s="6" t="s">
         <v>573</v>
       </c>
@@ -7692,7 +7840,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B13" s="6" t="s">
         <v>573</v>
       </c>
@@ -7700,7 +7848,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B14" s="6" t="s">
         <v>573</v>
       </c>
@@ -7708,7 +7856,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B15" s="6" t="s">
         <v>573</v>
       </c>
@@ -7718,7 +7866,7 @@
       <c r="H15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B16" s="6" t="s">
         <v>573</v>
       </c>
@@ -7729,7 +7877,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B17" s="6" t="s">
         <v>573</v>
       </c>
@@ -7739,7 +7887,7 @@
       <c r="H17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B18" s="6" t="s">
         <v>573</v>
       </c>
@@ -7749,7 +7897,7 @@
       <c r="H18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B19" s="6" t="s">
         <v>573</v>
       </c>
@@ -7760,7 +7908,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B20" s="6" t="s">
         <v>573</v>
       </c>
@@ -7771,7 +7919,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B21" s="6" t="s">
         <v>573</v>
       </c>
@@ -7781,7 +7929,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B22" s="6" t="s">
         <v>573</v>
       </c>
@@ -7791,7 +7939,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B23" s="6" t="s">
         <v>573</v>
       </c>
@@ -7801,7 +7949,7 @@
       <c r="H23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B24" s="6" t="s">
         <v>573</v>
       </c>
@@ -7811,7 +7959,7 @@
       <c r="H24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B25" s="6" t="s">
         <v>573</v>
       </c>
@@ -7819,7 +7967,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B26" s="6" t="s">
         <v>573</v>
       </c>
@@ -7827,7 +7975,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B27" s="6" t="s">
         <v>573</v>
       </c>
@@ -7835,7 +7983,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B28" s="6" t="s">
         <v>573</v>
       </c>
@@ -7843,7 +7991,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B29" s="6" t="s">
         <v>573</v>
       </c>
@@ -7852,7 +8000,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B30" s="6" t="s">
         <v>573</v>
       </c>
@@ -7861,7 +8009,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B31" s="6" t="s">
         <v>573</v>
       </c>
@@ -7870,7 +8018,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B32" s="6" t="s">
         <v>573</v>
       </c>
@@ -7879,7 +8027,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B33" s="6" t="s">
         <v>573</v>
       </c>
@@ -7891,7 +8039,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B34" s="6" t="s">
         <v>573</v>
       </c>
@@ -7900,7 +8048,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B35" s="6" t="s">
         <v>573</v>
       </c>
@@ -7912,7 +8060,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B36" s="6" t="s">
         <v>573</v>
       </c>
@@ -7921,7 +8069,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B37" s="6" t="s">
         <v>573</v>
       </c>
@@ -7930,7 +8078,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B38" s="6" t="s">
         <v>573</v>
       </c>
@@ -7939,7 +8087,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B39" s="6" t="s">
         <v>573</v>
       </c>
@@ -7948,7 +8096,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B40" s="6" t="s">
         <v>573</v>
       </c>
@@ -7960,7 +8108,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B41" s="6" t="s">
         <v>573</v>
       </c>
@@ -7969,7 +8117,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B42" s="6" t="s">
         <v>573</v>
       </c>
@@ -7981,7 +8129,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B43" s="6" t="s">
         <v>573</v>
       </c>
@@ -7990,7 +8138,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B44" s="6" t="s">
         <v>573</v>
       </c>
@@ -7999,7 +8147,7 @@
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B45" s="6" t="s">
         <v>573</v>
       </c>
@@ -8007,7 +8155,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B46" s="6" t="s">
         <v>573</v>
       </c>
@@ -8015,7 +8163,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B47" s="6" t="s">
         <v>573</v>
       </c>
@@ -8023,7 +8171,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B48" s="6" t="s">
         <v>573</v>
       </c>
@@ -8031,7 +8179,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B49" s="6" t="s">
         <v>573</v>
       </c>
@@ -8039,7 +8187,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B50" s="6" t="s">
         <v>573</v>
       </c>
@@ -8047,7 +8195,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B51" s="6" t="s">
         <v>573</v>
       </c>
@@ -8055,7 +8203,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B52" s="6" t="s">
         <v>573</v>
       </c>
@@ -8063,7 +8211,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B53" s="6" t="s">
         <v>573</v>
       </c>
@@ -8071,7 +8219,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B54" s="6" t="s">
         <v>573</v>
       </c>
@@ -8082,7 +8230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B55" s="6" t="s">
         <v>573</v>
       </c>
@@ -8090,7 +8238,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B56" s="6" t="s">
         <v>573</v>
       </c>
@@ -8101,7 +8249,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B57" s="6" t="s">
         <v>573</v>
       </c>
@@ -8109,7 +8257,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B58" s="6" t="s">
         <v>573</v>
       </c>
@@ -8117,7 +8265,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B59" s="6" t="s">
         <v>573</v>
       </c>
@@ -8125,7 +8273,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B60" s="6" t="s">
         <v>573</v>
       </c>
@@ -8133,7 +8281,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B61" s="6" t="s">
         <v>573</v>
       </c>
@@ -8144,7 +8292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B62" s="6" t="s">
         <v>573</v>
       </c>
@@ -8152,7 +8300,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B63" s="6" t="s">
         <v>573</v>
       </c>
@@ -8163,7 +8311,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B64" s="6" t="s">
         <v>573</v>
       </c>
@@ -8171,7 +8319,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B65" s="6" t="s">
         <v>573</v>
       </c>
@@ -8179,7 +8327,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B66" s="6" t="s">
         <v>573</v>
       </c>
@@ -8187,7 +8335,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B67" s="6" t="s">
         <v>573</v>
       </c>
@@ -8195,7 +8343,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B68" s="6" t="s">
         <v>573</v>
       </c>
@@ -8203,7 +8351,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B69" s="6" t="s">
         <v>573</v>
       </c>
@@ -8211,7 +8359,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B70" s="6" t="s">
         <v>573</v>
       </c>
@@ -8219,7 +8367,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B71" s="6" t="s">
         <v>573</v>
       </c>
@@ -8227,7 +8375,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B72" s="6" t="s">
         <v>573</v>
       </c>
@@ -8235,7 +8383,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B73" s="6" t="s">
         <v>573</v>
       </c>
@@ -8243,7 +8391,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B74" s="6" t="s">
         <v>573</v>
       </c>
@@ -8251,7 +8399,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B75" s="6" t="s">
         <v>573</v>
       </c>
@@ -8259,7 +8407,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B76" s="6" t="s">
         <v>573</v>
       </c>
@@ -8267,7 +8415,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B77" s="6" t="s">
         <v>573</v>
       </c>
@@ -8275,7 +8423,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B78" s="6" t="s">
         <v>573</v>
       </c>
@@ -8283,7 +8431,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B79" s="6" t="s">
         <v>573</v>
       </c>
@@ -8291,7 +8439,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B80" s="6" t="s">
         <v>573</v>
       </c>
@@ -8299,7 +8447,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B81" s="6" t="s">
         <v>573</v>
       </c>
@@ -8307,7 +8455,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B82" s="6" t="s">
         <v>573</v>
       </c>
@@ -8328,9 +8476,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>587</v>
       </c>
@@ -8344,7 +8492,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>304</v>
       </c>
@@ -8358,7 +8506,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>305</v>
       </c>
@@ -8372,7 +8520,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>306</v>
       </c>
@@ -8386,7 +8534,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>307</v>
       </c>
@@ -8400,7 +8548,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>308</v>
       </c>
@@ -8414,7 +8562,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>309</v>
       </c>
@@ -8428,7 +8576,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>310</v>
       </c>
@@ -8442,7 +8590,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>311</v>
       </c>
@@ -8456,7 +8604,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>312</v>
       </c>
@@ -8470,7 +8618,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>313</v>
       </c>
@@ -8484,7 +8632,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>314</v>
       </c>
@@ -8498,7 +8646,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>315</v>
       </c>
@@ -8512,7 +8660,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>316</v>
       </c>
@@ -8526,7 +8674,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>317</v>
       </c>
@@ -8540,7 +8688,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>318</v>
       </c>
@@ -8554,7 +8702,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>319</v>
       </c>
@@ -8568,7 +8716,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>320</v>
       </c>
@@ -8582,7 +8730,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>321</v>
       </c>
@@ -8596,7 +8744,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>322</v>
       </c>
@@ -8610,7 +8758,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>323</v>
       </c>
@@ -8624,7 +8772,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>324</v>
       </c>
@@ -8638,7 +8786,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>325</v>
       </c>
@@ -8652,7 +8800,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>326</v>
       </c>
@@ -8666,7 +8814,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>327</v>
       </c>
@@ -8680,7 +8828,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>328</v>
       </c>
@@ -8694,7 +8842,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>329</v>
       </c>
@@ -8708,7 +8856,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>330</v>
       </c>
@@ -8722,7 +8870,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>331</v>
       </c>
@@ -8736,7 +8884,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>332</v>
       </c>
@@ -8750,7 +8898,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>333</v>
       </c>
@@ -8764,7 +8912,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>334</v>
       </c>
@@ -8778,7 +8926,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>335</v>
       </c>
@@ -8792,7 +8940,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>336</v>
       </c>
@@ -8806,7 +8954,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>337</v>
       </c>
@@ -8820,7 +8968,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>338</v>
       </c>
@@ -8834,7 +8982,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>339</v>
       </c>
@@ -8848,7 +8996,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>340</v>
       </c>
@@ -8862,7 +9010,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>341</v>
       </c>
@@ -8876,7 +9024,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>342</v>
       </c>
@@ -8890,7 +9038,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>343</v>
       </c>
@@ -8904,7 +9052,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>344</v>
       </c>
@@ -8918,7 +9066,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>345</v>
       </c>
@@ -8932,7 +9080,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>346</v>
       </c>
@@ -8946,7 +9094,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>347</v>
       </c>
@@ -8960,7 +9108,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>348</v>
       </c>
@@ -8974,7 +9122,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>349</v>
       </c>
@@ -8988,7 +9136,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>350</v>
       </c>
@@ -9002,7 +9150,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>351</v>
       </c>
@@ -9016,7 +9164,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>352</v>
       </c>
@@ -9030,7 +9178,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>353</v>
       </c>
@@ -9044,7 +9192,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>354</v>
       </c>
@@ -9058,7 +9206,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>355</v>
       </c>
@@ -9072,7 +9220,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>356</v>
       </c>
@@ -9086,7 +9234,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>357</v>
       </c>
@@ -9100,7 +9248,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>358</v>
       </c>
@@ -9114,7 +9262,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>359</v>
       </c>
@@ -9128,7 +9276,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>360</v>
       </c>
@@ -9142,7 +9290,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>361</v>
       </c>
@@ -9156,7 +9304,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>362</v>
       </c>
@@ -9170,7 +9318,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>363</v>
       </c>
@@ -9184,7 +9332,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>364</v>
       </c>
@@ -9198,7 +9346,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>365</v>
       </c>
@@ -9212,7 +9360,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>366</v>
       </c>
@@ -9226,7 +9374,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>839</v>
       </c>
@@ -9240,7 +9388,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>842</v>
       </c>
@@ -9254,7 +9402,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>845</v>
       </c>
@@ -9268,7 +9416,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>848</v>
       </c>
@@ -9282,7 +9430,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>851</v>
       </c>
@@ -9296,7 +9444,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>854</v>
       </c>
@@ -9310,7 +9458,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>857</v>
       </c>
@@ -9324,7 +9472,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>367</v>
       </c>
@@ -9338,7 +9486,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>368</v>
       </c>
@@ -9352,7 +9500,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>369</v>
       </c>
@@ -9366,7 +9514,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>370</v>
       </c>
@@ -9380,7 +9528,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>371</v>
       </c>
@@ -9394,7 +9542,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>372</v>
       </c>
@@ -9408,7 +9556,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>373</v>
       </c>
@@ -9422,7 +9570,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>374</v>
       </c>
@@ -9436,7 +9584,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>375</v>
       </c>
@@ -9450,7 +9598,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>376</v>
       </c>
@@ -9464,7 +9612,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>377</v>
       </c>
@@ -9478,7 +9626,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>378</v>
       </c>
@@ -9492,7 +9640,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>379</v>
       </c>
@@ -9506,7 +9654,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>380</v>
       </c>
@@ -9533,9 +9681,9 @@
       <selection activeCell="B3" sqref="B3:B127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9561,7 +9709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>573</v>
       </c>
@@ -9569,7 +9717,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>573</v>
       </c>
@@ -9577,7 +9725,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>573</v>
       </c>
@@ -9585,7 +9733,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>573</v>
       </c>
@@ -9593,7 +9741,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
         <v>573</v>
       </c>
@@ -9601,7 +9749,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
         <v>573</v>
       </c>
@@ -9609,7 +9757,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>573</v>
       </c>
@@ -9617,7 +9765,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
         <v>573</v>
       </c>
@@ -9625,7 +9773,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
         <v>573</v>
       </c>
@@ -9633,7 +9781,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
         <v>573</v>
       </c>
@@ -9641,7 +9789,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
         <v>573</v>
       </c>
@@ -9649,7 +9797,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
         <v>573</v>
       </c>
@@ -9657,7 +9805,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B14" t="s">
         <v>573</v>
       </c>
@@ -9665,7 +9813,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>573</v>
       </c>
@@ -9673,7 +9821,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
         <v>573</v>
       </c>
@@ -9681,7 +9829,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B17" t="s">
         <v>573</v>
       </c>
@@ -9689,7 +9837,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B18" t="s">
         <v>573</v>
       </c>
@@ -9697,7 +9845,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B19" t="s">
         <v>573</v>
       </c>
@@ -9705,7 +9853,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
         <v>573</v>
       </c>
@@ -9713,7 +9861,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B21" t="s">
         <v>573</v>
       </c>
@@ -9721,7 +9869,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B22" t="s">
         <v>573</v>
       </c>
@@ -9729,7 +9877,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B23" t="s">
         <v>573</v>
       </c>
@@ -9737,7 +9885,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
         <v>573</v>
       </c>
@@ -9745,7 +9893,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B25" t="s">
         <v>573</v>
       </c>
@@ -9753,7 +9901,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B26" t="s">
         <v>573</v>
       </c>
@@ -9761,7 +9909,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B27" t="s">
         <v>573</v>
       </c>
@@ -9769,7 +9917,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B28" t="s">
         <v>573</v>
       </c>
@@ -9777,7 +9925,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B29" t="s">
         <v>573</v>
       </c>
@@ -9785,7 +9933,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B30" t="s">
         <v>573</v>
       </c>
@@ -9793,7 +9941,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B31" t="s">
         <v>573</v>
       </c>
@@ -9801,7 +9949,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B32" t="s">
         <v>573</v>
       </c>
@@ -9809,7 +9957,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B33" t="s">
         <v>573</v>
       </c>
@@ -9817,7 +9965,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B34" t="s">
         <v>573</v>
       </c>
@@ -9825,7 +9973,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B35" t="s">
         <v>573</v>
       </c>
@@ -9833,7 +9981,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B36" t="s">
         <v>573</v>
       </c>
@@ -9841,7 +9989,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B37" t="s">
         <v>573</v>
       </c>
@@ -9849,7 +9997,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B38" t="s">
         <v>573</v>
       </c>
@@ -9857,7 +10005,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B39" t="s">
         <v>573</v>
       </c>
@@ -9865,7 +10013,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B40" t="s">
         <v>573</v>
       </c>
@@ -9873,7 +10021,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B41" t="s">
         <v>573</v>
       </c>
@@ -9881,7 +10029,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B42" t="s">
         <v>573</v>
       </c>
@@ -9889,7 +10037,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B43" t="s">
         <v>573</v>
       </c>
@@ -9897,7 +10045,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B44" t="s">
         <v>573</v>
       </c>
@@ -9905,7 +10053,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B45" t="s">
         <v>573</v>
       </c>
@@ -9913,7 +10061,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B46" t="s">
         <v>573</v>
       </c>
@@ -9921,7 +10069,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B47" t="s">
         <v>573</v>
       </c>
@@ -9929,7 +10077,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B48" t="s">
         <v>573</v>
       </c>
@@ -9937,7 +10085,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B49" t="s">
         <v>573</v>
       </c>
@@ -9945,7 +10093,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B50" t="s">
         <v>573</v>
       </c>
@@ -9953,7 +10101,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B51" t="s">
         <v>573</v>
       </c>
@@ -9961,7 +10109,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B52" t="s">
         <v>573</v>
       </c>
@@ -9969,7 +10117,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B53" t="s">
         <v>573</v>
       </c>
@@ -9977,7 +10125,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B54" t="s">
         <v>573</v>
       </c>
@@ -9985,7 +10133,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B55" t="s">
         <v>573</v>
       </c>
@@ -9993,7 +10141,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B56" t="s">
         <v>573</v>
       </c>
@@ -10001,7 +10149,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B57" t="s">
         <v>573</v>
       </c>
@@ -10009,7 +10157,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B58" t="s">
         <v>573</v>
       </c>
@@ -10017,7 +10165,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B59" t="s">
         <v>573</v>
       </c>
@@ -10025,7 +10173,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B60" t="s">
         <v>573</v>
       </c>
@@ -10033,7 +10181,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B61" t="s">
         <v>573</v>
       </c>
@@ -10041,7 +10189,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B62" t="s">
         <v>573</v>
       </c>
@@ -10049,7 +10197,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B63" t="s">
         <v>573</v>
       </c>
@@ -10057,7 +10205,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B64" t="s">
         <v>573</v>
       </c>
@@ -10065,7 +10213,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B65" t="s">
         <v>573</v>
       </c>
@@ -10073,7 +10221,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B66" t="s">
         <v>573</v>
       </c>
@@ -10081,7 +10229,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B67" t="s">
         <v>573</v>
       </c>
@@ -10089,7 +10237,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B68" t="s">
         <v>573</v>
       </c>
@@ -10097,7 +10245,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B69" t="s">
         <v>573</v>
       </c>
@@ -10105,7 +10253,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B70" t="s">
         <v>573</v>
       </c>
@@ -10113,7 +10261,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B71" t="s">
         <v>573</v>
       </c>
@@ -10121,7 +10269,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B72" t="s">
         <v>573</v>
       </c>
@@ -10129,7 +10277,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B73" t="s">
         <v>573</v>
       </c>
@@ -10137,7 +10285,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B74" t="s">
         <v>573</v>
       </c>
@@ -10145,7 +10293,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B75" t="s">
         <v>573</v>
       </c>
@@ -10153,7 +10301,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B76" t="s">
         <v>573</v>
       </c>
@@ -10161,7 +10309,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B77" t="s">
         <v>573</v>
       </c>
@@ -10169,7 +10317,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B78" t="s">
         <v>573</v>
       </c>
@@ -10177,7 +10325,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B79" t="s">
         <v>573</v>
       </c>
@@ -10185,7 +10333,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B80" t="s">
         <v>573</v>
       </c>
@@ -10193,7 +10341,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B81" t="s">
         <v>573</v>
       </c>
@@ -10201,7 +10349,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B82" t="s">
         <v>573</v>
       </c>
@@ -10209,7 +10357,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B83" t="s">
         <v>573</v>
       </c>
@@ -10217,7 +10365,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B84" t="s">
         <v>573</v>
       </c>
@@ -10225,7 +10373,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B85" t="s">
         <v>573</v>
       </c>
@@ -10233,7 +10381,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B86" t="s">
         <v>573</v>
       </c>
@@ -10241,7 +10389,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B87" t="s">
         <v>573</v>
       </c>
@@ -10249,7 +10397,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B88" t="s">
         <v>573</v>
       </c>
@@ -10257,7 +10405,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B89" t="s">
         <v>573</v>
       </c>
@@ -10265,7 +10413,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B90" t="s">
         <v>573</v>
       </c>
@@ -10273,7 +10421,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B91" t="s">
         <v>573</v>
       </c>
@@ -10281,7 +10429,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B92" t="s">
         <v>573</v>
       </c>
@@ -10289,7 +10437,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B93" t="s">
         <v>573</v>
       </c>
@@ -10297,7 +10445,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B94" t="s">
         <v>573</v>
       </c>
@@ -10305,7 +10453,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B95" t="s">
         <v>573</v>
       </c>
@@ -10313,7 +10461,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B96" t="s">
         <v>573</v>
       </c>
@@ -10321,7 +10469,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B97" t="s">
         <v>573</v>
       </c>
@@ -10329,7 +10477,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B98" t="s">
         <v>573</v>
       </c>
@@ -10337,7 +10485,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B99" t="s">
         <v>573</v>
       </c>
@@ -10345,7 +10493,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B100" t="s">
         <v>573</v>
       </c>
@@ -10353,7 +10501,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B101" t="s">
         <v>573</v>
       </c>
@@ -10361,7 +10509,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B102" t="s">
         <v>573</v>
       </c>
@@ -10369,7 +10517,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B103" t="s">
         <v>573</v>
       </c>
@@ -10377,7 +10525,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B104" t="s">
         <v>573</v>
       </c>
@@ -10385,7 +10533,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B105" t="s">
         <v>573</v>
       </c>
@@ -10393,7 +10541,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B106" t="s">
         <v>573</v>
       </c>
@@ -10401,7 +10549,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B107" t="s">
         <v>573</v>
       </c>
@@ -10409,7 +10557,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B108" t="s">
         <v>573</v>
       </c>
@@ -10417,7 +10565,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B109" t="s">
         <v>573</v>
       </c>
@@ -10425,7 +10573,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B110" t="s">
         <v>573</v>
       </c>
@@ -10433,7 +10581,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B111" t="s">
         <v>573</v>
       </c>
@@ -10441,7 +10589,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B112" t="s">
         <v>573</v>
       </c>
@@ -10449,7 +10597,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B113" t="s">
         <v>573</v>
       </c>
@@ -10457,7 +10605,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B114" t="s">
         <v>573</v>
       </c>
@@ -10465,7 +10613,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B115" t="s">
         <v>573</v>
       </c>
@@ -10473,7 +10621,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B116" t="s">
         <v>573</v>
       </c>
@@ -10481,7 +10629,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B117" t="s">
         <v>573</v>
       </c>
@@ -10489,7 +10637,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B118" t="s">
         <v>573</v>
       </c>
@@ -10497,7 +10645,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B119" t="s">
         <v>573</v>
       </c>
@@ -10505,7 +10653,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B120" t="s">
         <v>573</v>
       </c>
@@ -10513,7 +10661,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B121" t="s">
         <v>573</v>
       </c>
@@ -10521,7 +10669,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B122" t="s">
         <v>573</v>
       </c>
@@ -10529,7 +10677,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B123" t="s">
         <v>573</v>
       </c>
@@ -10537,7 +10685,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B124" t="s">
         <v>573</v>
       </c>
@@ -10545,7 +10693,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B125" t="s">
         <v>573</v>
       </c>
@@ -10553,7 +10701,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B126" t="s">
         <v>573</v>
       </c>
@@ -10561,7 +10709,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B127" t="s">
         <v>573</v>
       </c>
@@ -10582,9 +10730,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>587</v>
       </c>
@@ -10598,7 +10746,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>402</v>
       </c>
@@ -10612,7 +10760,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>403</v>
       </c>
@@ -10626,7 +10774,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>404</v>
       </c>
@@ -10640,7 +10788,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>405</v>
       </c>
@@ -10654,7 +10802,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>406</v>
       </c>
@@ -10668,7 +10816,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>407</v>
       </c>
@@ -10682,7 +10830,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>408</v>
       </c>
@@ -10696,7 +10844,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>409</v>
       </c>
@@ -10710,7 +10858,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>410</v>
       </c>
@@ -10724,7 +10872,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>411</v>
       </c>
@@ -10738,7 +10886,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>412</v>
       </c>
@@ -10752,7 +10900,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>413</v>
       </c>
@@ -10766,7 +10914,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>414</v>
       </c>
@@ -10780,7 +10928,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>415</v>
       </c>
@@ -10794,7 +10942,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>416</v>
       </c>
@@ -10808,7 +10956,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>417</v>
       </c>
@@ -10822,7 +10970,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>418</v>
       </c>
@@ -10836,7 +10984,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>419</v>
       </c>
@@ -10850,7 +10998,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>420</v>
       </c>
@@ -10864,7 +11012,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>421</v>
       </c>
@@ -10878,7 +11026,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>422</v>
       </c>
@@ -10892,7 +11040,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>423</v>
       </c>
@@ -10906,7 +11054,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>424</v>
       </c>
@@ -10920,7 +11068,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>425</v>
       </c>
@@ -10934,7 +11082,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>426</v>
       </c>
@@ -10948,7 +11096,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>427</v>
       </c>
@@ -10962,7 +11110,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>428</v>
       </c>
@@ -10976,7 +11124,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>429</v>
       </c>
@@ -10990,7 +11138,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>430</v>
       </c>
@@ -11004,7 +11152,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>431</v>
       </c>
@@ -11018,7 +11166,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>432</v>
       </c>
@@ -11032,7 +11180,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>433</v>
       </c>
@@ -11046,7 +11194,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>434</v>
       </c>
@@ -11060,7 +11208,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>435</v>
       </c>
@@ -11074,7 +11222,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>436</v>
       </c>
@@ -11088,7 +11236,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>437</v>
       </c>
@@ -11102,7 +11250,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>438</v>
       </c>
@@ -11116,7 +11264,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>439</v>
       </c>
@@ -11130,7 +11278,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>440</v>
       </c>
@@ -11144,7 +11292,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>441</v>
       </c>
@@ -11158,7 +11306,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>442</v>
       </c>
@@ -11172,7 +11320,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>443</v>
       </c>
@@ -11186,7 +11334,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>444</v>
       </c>
@@ -11200,7 +11348,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>445</v>
       </c>
@@ -11214,7 +11362,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>446</v>
       </c>
@@ -11228,7 +11376,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>447</v>
       </c>
@@ -11242,7 +11390,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>448</v>
       </c>
@@ -11256,7 +11404,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>449</v>
       </c>
@@ -11270,7 +11418,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>450</v>
       </c>
@@ -11284,7 +11432,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>451</v>
       </c>
@@ -11298,7 +11446,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>452</v>
       </c>
@@ -11312,7 +11460,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>453</v>
       </c>
@@ -11326,7 +11474,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>454</v>
       </c>
@@ -11340,7 +11488,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>455</v>
       </c>
@@ -11354,7 +11502,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>456</v>
       </c>
@@ -11368,7 +11516,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>457</v>
       </c>
@@ -11382,7 +11530,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>458</v>
       </c>
@@ -11396,7 +11544,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>459</v>
       </c>
@@ -11410,7 +11558,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>460</v>
       </c>
@@ -11424,7 +11572,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>461</v>
       </c>
@@ -11438,7 +11586,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>462</v>
       </c>
@@ -11452,7 +11600,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>463</v>
       </c>
@@ -11466,7 +11614,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>464</v>
       </c>
@@ -11480,7 +11628,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>465</v>
       </c>
@@ -11494,7 +11642,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>466</v>
       </c>
@@ -11508,7 +11656,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>467</v>
       </c>
@@ -11522,7 +11670,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>468</v>
       </c>
@@ -11536,7 +11684,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>469</v>
       </c>
@@ -11550,7 +11698,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>470</v>
       </c>
@@ -11564,7 +11712,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>471</v>
       </c>
@@ -11578,7 +11726,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>472</v>
       </c>
@@ -11592,7 +11740,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>473</v>
       </c>
@@ -11606,7 +11754,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>474</v>
       </c>
@@ -11620,7 +11768,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>475</v>
       </c>
@@ -11634,7 +11782,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>476</v>
       </c>
@@ -11648,7 +11796,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>477</v>
       </c>
@@ -11662,7 +11810,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>478</v>
       </c>
@@ -11676,7 +11824,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>479</v>
       </c>
@@ -11690,7 +11838,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>480</v>
       </c>
@@ -11704,7 +11852,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>481</v>
       </c>
@@ -11718,7 +11866,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>482</v>
       </c>
@@ -11732,7 +11880,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>483</v>
       </c>
@@ -11746,7 +11894,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>484</v>
       </c>
@@ -11760,7 +11908,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>485</v>
       </c>
@@ -11774,7 +11922,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>486</v>
       </c>
@@ -11788,7 +11936,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>487</v>
       </c>
@@ -11802,7 +11950,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>488</v>
       </c>
@@ -11816,7 +11964,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>489</v>
       </c>
@@ -11830,7 +11978,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>490</v>
       </c>
@@ -11844,7 +11992,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>491</v>
       </c>
@@ -11858,7 +12006,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>492</v>
       </c>
@@ -11872,7 +12020,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>493</v>
       </c>
@@ -11886,7 +12034,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>494</v>
       </c>
@@ -11900,7 +12048,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>495</v>
       </c>
@@ -11914,7 +12062,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>496</v>
       </c>
@@ -11928,7 +12076,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>497</v>
       </c>
@@ -11942,7 +12090,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>498</v>
       </c>
@@ -11956,7 +12104,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>499</v>
       </c>
@@ -11970,7 +12118,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>500</v>
       </c>
@@ -11984,7 +12132,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>501</v>
       </c>
@@ -11998,7 +12146,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>502</v>
       </c>
@@ -12012,7 +12160,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>503</v>
       </c>
@@ -12026,7 +12174,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>504</v>
       </c>
@@ -12040,7 +12188,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>505</v>
       </c>
@@ -12054,7 +12202,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>506</v>
       </c>
@@ -12068,7 +12216,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>507</v>
       </c>
@@ -12082,7 +12230,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>508</v>
       </c>
@@ -12096,7 +12244,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>509</v>
       </c>
@@ -12110,7 +12258,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>510</v>
       </c>
@@ -12124,7 +12272,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
         <v>511</v>
       </c>
@@ -12138,7 +12286,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
         <v>512</v>
       </c>
@@ -12152,7 +12300,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
         <v>513</v>
       </c>
@@ -12166,7 +12314,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
         <v>514</v>
       </c>
@@ -12180,7 +12328,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
         <v>515</v>
       </c>
@@ -12194,7 +12342,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
         <v>516</v>
       </c>
@@ -12208,7 +12356,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
         <v>517</v>
       </c>
@@ -12222,7 +12370,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
         <v>518</v>
       </c>
@@ -12236,7 +12384,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
         <v>519</v>
       </c>
@@ -12250,7 +12398,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
         <v>520</v>
       </c>
@@ -12264,7 +12412,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
         <v>521</v>
       </c>
@@ -12278,7 +12426,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
         <v>522</v>
       </c>
@@ -12292,7 +12440,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
         <v>523</v>
       </c>
@@ -12306,7 +12454,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
         <v>524</v>
       </c>
@@ -12320,7 +12468,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
         <v>525</v>
       </c>
@@ -12334,7 +12482,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
         <v>526</v>
       </c>
@@ -12348,7 +12496,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
         <v>527</v>
       </c>
@@ -12375,9 +12523,9 @@
       <selection activeCell="B3" sqref="B3:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12403,7 +12551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>573</v>
       </c>
@@ -12411,7 +12559,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>573</v>
       </c>
@@ -12419,7 +12567,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>573</v>
       </c>
@@ -12427,7 +12575,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>573</v>
       </c>
@@ -12435,7 +12583,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
         <v>573</v>
       </c>
@@ -12443,7 +12591,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
         <v>573</v>
       </c>
@@ -12451,7 +12599,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>573</v>
       </c>
@@ -12459,7 +12607,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
         <v>573</v>
       </c>
@@ -12467,7 +12615,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
         <v>573</v>
       </c>
@@ -12475,7 +12623,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
         <v>573</v>
       </c>
@@ -12483,7 +12631,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
         <v>573</v>
       </c>
@@ -12491,7 +12639,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
         <v>573</v>
       </c>
@@ -12499,7 +12647,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B14" t="s">
         <v>573</v>
       </c>
@@ -12507,7 +12655,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>573</v>
       </c>
@@ -12515,7 +12663,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
         <v>573</v>
       </c>
@@ -12523,7 +12671,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B17" t="s">
         <v>573</v>
       </c>
@@ -12531,7 +12679,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B18" t="s">
         <v>573</v>
       </c>
@@ -12539,7 +12687,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B19" t="s">
         <v>573</v>
       </c>
@@ -12547,7 +12695,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
         <v>573</v>
       </c>
@@ -12555,7 +12703,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B21" t="s">
         <v>573</v>
       </c>
@@ -12563,7 +12711,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B22" t="s">
         <v>573</v>
       </c>
@@ -12584,9 +12732,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>587</v>
       </c>
@@ -12600,7 +12748,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>381</v>
       </c>
@@ -12614,7 +12762,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>382</v>
       </c>
@@ -12628,7 +12776,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>383</v>
       </c>
@@ -12642,7 +12790,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>384</v>
       </c>
@@ -12656,7 +12804,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>385</v>
       </c>
@@ -12670,7 +12818,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>386</v>
       </c>
@@ -12684,7 +12832,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>387</v>
       </c>
@@ -12698,7 +12846,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>388</v>
       </c>
@@ -12712,7 +12860,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>389</v>
       </c>
@@ -12726,7 +12874,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>390</v>
       </c>
@@ -12740,7 +12888,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>391</v>
       </c>
@@ -12754,7 +12902,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>392</v>
       </c>
@@ -12768,7 +12916,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>393</v>
       </c>
@@ -12782,7 +12930,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>394</v>
       </c>
@@ -12796,7 +12944,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>395</v>
       </c>
@@ -12810,7 +12958,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>396</v>
       </c>
@@ -12824,7 +12972,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>397</v>
       </c>
@@ -12838,7 +12986,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>398</v>
       </c>
@@ -12852,7 +13000,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>399</v>
       </c>
@@ -12866,7 +13014,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>400</v>
       </c>
@@ -12880,7 +13028,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>401</v>
       </c>
@@ -12903,13 +13051,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D756D66F-C8F8-1846-9227-AF8942E6C619}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12935,12 +13083,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="D2" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>573</v>
       </c>
@@ -12954,12 +13102,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="C4" s="5" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>573</v>
       </c>
@@ -12967,7 +13115,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
         <v>573</v>
       </c>
@@ -12975,7 +13123,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
         <v>573</v>
       </c>
@@ -12983,7 +13131,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>573</v>
       </c>
@@ -12991,7 +13139,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
         <v>573</v>
       </c>
@@ -12999,7 +13147,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
         <v>573</v>
       </c>
@@ -13007,7 +13155,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
         <v>573</v>
       </c>
@@ -13015,7 +13163,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
         <v>573</v>
       </c>
@@ -13023,7 +13171,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
         <v>573</v>
       </c>
@@ -13031,7 +13179,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B14" t="s">
         <v>573</v>
       </c>
@@ -13039,7 +13187,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>573</v>
       </c>
@@ -13047,7 +13195,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
         <v>573</v>
       </c>
@@ -13055,7 +13203,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B17" t="s">
         <v>573</v>
       </c>
@@ -13063,7 +13211,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B18" t="s">
         <v>573</v>
       </c>
@@ -13074,7 +13222,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B19" t="s">
         <v>573</v>
       </c>
@@ -13085,7 +13233,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
         <v>573</v>
       </c>
@@ -13096,7 +13244,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B21" t="s">
         <v>573</v>
       </c>
@@ -13105,7 +13253,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B22" t="s">
         <v>573</v>
       </c>
@@ -13118,7 +13266,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B23" t="s">
         <v>573</v>
       </c>
@@ -13130,7 +13278,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
         <v>573</v>
       </c>
@@ -13139,7 +13287,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B25" t="s">
         <v>573</v>
       </c>
@@ -13151,7 +13299,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B26" t="s">
         <v>573</v>
       </c>
@@ -13164,7 +13312,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B27" t="s">
         <v>573</v>
       </c>
@@ -13178,7 +13326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B28" t="s">
         <v>573</v>
       </c>
@@ -13186,7 +13334,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B29" t="s">
         <v>573</v>
       </c>
@@ -13194,7 +13342,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B30" t="s">
         <v>573</v>
       </c>
@@ -13202,7 +13350,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B31" t="s">
         <v>573</v>
       </c>
@@ -13210,7 +13358,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B32" t="s">
         <v>573</v>
       </c>
@@ -13218,7 +13366,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B33" t="s">
         <v>573</v>
       </c>
@@ -13226,7 +13374,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B34" t="s">
         <v>573</v>
       </c>
@@ -13234,7 +13382,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B35" t="s">
         <v>573</v>
       </c>
@@ -13242,7 +13390,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B36" t="s">
         <v>573</v>
       </c>
@@ -13250,7 +13398,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B37" t="s">
         <v>573</v>
       </c>
@@ -13258,7 +13406,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B38" t="s">
         <v>573</v>
       </c>
@@ -13272,7 +13420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B39" t="s">
         <v>573</v>
       </c>
@@ -13280,7 +13428,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B40" t="s">
         <v>573</v>
       </c>
@@ -13288,7 +13436,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B41" t="s">
         <v>573</v>
       </c>
@@ -13296,7 +13444,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B42" t="s">
         <v>573</v>
       </c>
@@ -13304,7 +13452,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B43" t="s">
         <v>573</v>
       </c>
@@ -13312,7 +13460,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B44" t="s">
         <v>573</v>
       </c>
@@ -13320,17 +13468,17 @@
         <v>572</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.5">
       <c r="C45" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.5">
       <c r="C46" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B47" t="s">
         <v>573</v>
       </c>
@@ -13338,7 +13486,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B48" t="s">
         <v>573</v>
       </c>
@@ -13346,7 +13494,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B49" t="s">
         <v>573</v>
       </c>
@@ -13355,7 +13503,7 @@
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B50" t="s">
         <v>573</v>
       </c>
@@ -13363,7 +13511,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B51" t="s">
         <v>573</v>
       </c>
@@ -13371,7 +13519,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B52" t="s">
         <v>573</v>
       </c>
@@ -13379,7 +13527,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B53" t="s">
         <v>573</v>
       </c>

--- a/terms/teethTerms.xlsx
+++ b/terms/teethTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA705BB-9D8D-4FB4-865A-B910FB534817}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F72C3D-90CC-471E-9A41-FAFF020264DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="6" activeTab="9" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="6" activeTab="10" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="molars" sheetId="1" r:id="rId1"/>
@@ -4890,7 +4890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E1BF5A-9D40-754F-98C1-3B489ED02366}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -5259,8 +5259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05D49CD-491C-4440-858F-42EEE0666E89}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5576,7 +5576,7 @@
         <v>571</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>1151</v>
@@ -5587,7 +5587,7 @@
         <v>572</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>1153</v>

--- a/terms/teethTerms.xlsx
+++ b/terms/teethTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F72C3D-90CC-471E-9A41-FAFF020264DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5803CC8-EB8A-4B87-9E4B-A384DD642F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="6" activeTab="10" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="4" activeTab="9" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="molars" sheetId="1" r:id="rId1"/>
@@ -33,24 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={ADC1C8A0-2578-4F3A-9919-7DAAEBCE30C3}</author>
-  </authors>
-  <commentList>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{ADC1C8A0-2578-4F3A-9919-7DAAEBCE30C3}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Should these be in the premolar axis tab?</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3646,7 +3628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3667,6 +3649,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3685,9 +3668,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Amanda Peng" id="{C2980CF6-D7B8-4513-A6D9-1E0A3D4EA807}" userId="Amanda Peng" providerId="None"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3985,20 +3966,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A20" dT="2021-05-14T17:36:02.38" personId="{C2980CF6-D7B8-4513-A6D9-1E0A3D4EA807}" id="{ADC1C8A0-2578-4F3A-9919-7DAAEBCE30C3}">
-    <text>Should these be in the premolar axis tab?</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CA24E7-5FD2-BC4A-AA63-F254C54AF71B}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD81"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4887,11 +4860,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E1BF5A-9D40-754F-98C1-3B489ED02366}">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E1BF5A-9D40-754F-98C1-3B489ED02366}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5166,92 +5139,63 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" s="13" t="s">
-        <v>66</v>
+      <c r="A20" s="1" t="s">
+        <v>1163</v>
       </c>
       <c r="B20" t="s">
-        <v>591</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>1107</v>
+        <v>606</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>1161</v>
       </c>
       <c r="D20" t="s">
-        <v>1108</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" s="5" t="s">
-        <v>67</v>
+      <c r="A21" s="1" t="s">
+        <v>1164</v>
       </c>
       <c r="B21" t="s">
-        <v>591</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>1109</v>
+        <v>606</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>1162</v>
       </c>
       <c r="D21" t="s">
-        <v>1110</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" s="1" t="s">
-        <v>1163</v>
+      <c r="A22" t="s">
+        <v>1165</v>
       </c>
       <c r="B22" t="s">
         <v>606</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>1161</v>
+        <v>1172</v>
       </c>
       <c r="D22" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" s="1" t="s">
-        <v>1164</v>
+      <c r="A23" t="s">
+        <v>1166</v>
       </c>
       <c r="B23" t="s">
         <v>606</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>1162</v>
+        <v>1171</v>
       </c>
       <c r="D23" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B24" t="s">
-        <v>606</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B25" t="s">
-        <v>606</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D25" t="s">
         <v>1170</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5259,8 +5203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05D49CD-491C-4440-858F-42EEE0666E89}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5286,15 +5230,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
         <v>1111</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>1112</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>1113</v>
       </c>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
@@ -6400,7 +6345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF684AE-A18A-4B41-BCB8-49268F8FF3CF}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -7717,7 +7662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395A2342-B76D-F945-AFD5-0517DD67CEF9}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -8470,10 +8415,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1543CEEE-D9A7-3A4D-BA94-E7CFF9B3D402}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -9666,6 +9611,34 @@
       </c>
       <c r="D85" t="s">
         <v>880</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A86" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" t="s">
+        <v>591</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A87" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" t="s">
+        <v>591</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1110</v>
       </c>
     </row>
   </sheetData>
@@ -9677,7 +9650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAEFDBF-41FD-3947-89D1-12A935501BFE}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B127"/>
     </sheetView>
   </sheetViews>
@@ -10726,7 +10699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81486BC4-6059-E04B-B436-956308CF96F1}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -12728,8 +12701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B53A85-E827-8C4C-8BB8-B657434D7F58}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -13051,7 +13024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D756D66F-C8F8-1846-9227-AF8942E6C619}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/terms/teethTerms.xlsx
+++ b/terms/teethTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\terms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5803CC8-EB8A-4B87-9E4B-A384DD642F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2885F454-1E0A-734D-9ACC-3AABA1423D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="4" activeTab="9" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19400" windowHeight="11600" activeTab="8" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="molars" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,33 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={ADC1C8A0-2578-4F3A-9919-7DAAEBCE30C3}</author>
+  </authors>
+  <commentList>
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{ADC1C8A0-2578-4F3A-9919-7DAAEBCE30C3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Should these be in the premolar axis tab?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3628,7 +3655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3649,7 +3676,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3668,7 +3694,9 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Amanda Peng" id="{C2980CF6-D7B8-4513-A6D9-1E0A3D4EA807}" userId="Amanda Peng" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3966,20 +3994,28 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A20" dT="2021-05-14T17:36:02.38" personId="{C2980CF6-D7B8-4513-A6D9-1E0A3D4EA807}" id="{ADC1C8A0-2578-4F3A-9919-7DAAEBCE30C3}">
+    <text>Should these be in the premolar axis tab?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CA24E7-5FD2-BC4A-AA63-F254C54AF71B}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.8125" style="6"/>
+    <col min="1" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4005,7 +4041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>573</v>
       </c>
@@ -4013,7 +4049,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>573</v>
       </c>
@@ -4021,7 +4057,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>573</v>
       </c>
@@ -4029,7 +4065,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>573</v>
       </c>
@@ -4040,7 +4076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>573</v>
       </c>
@@ -4048,7 +4084,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>573</v>
       </c>
@@ -4059,7 +4095,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>573</v>
       </c>
@@ -4068,7 +4104,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>573</v>
       </c>
@@ -4077,7 +4113,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>573</v>
       </c>
@@ -4086,7 +4122,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>573</v>
       </c>
@@ -4096,7 +4132,7 @@
       <c r="I11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>573</v>
       </c>
@@ -4109,7 +4145,7 @@
       <c r="I12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>573</v>
       </c>
@@ -4119,7 +4155,7 @@
       <c r="I13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>573</v>
       </c>
@@ -4132,7 +4168,7 @@
       <c r="I14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>573</v>
       </c>
@@ -4142,7 +4178,7 @@
       <c r="I15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>573</v>
       </c>
@@ -4152,7 +4188,7 @@
       <c r="I16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>573</v>
       </c>
@@ -4162,7 +4198,7 @@
       <c r="I17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>573</v>
       </c>
@@ -4172,7 +4208,7 @@
       <c r="I18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>573</v>
       </c>
@@ -4182,7 +4218,7 @@
       <c r="I19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>573</v>
       </c>
@@ -4192,7 +4228,7 @@
       <c r="I20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>573</v>
       </c>
@@ -4202,7 +4238,7 @@
       <c r="I21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>573</v>
       </c>
@@ -4212,7 +4248,7 @@
       <c r="I22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>573</v>
       </c>
@@ -4220,7 +4256,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>573</v>
       </c>
@@ -4229,7 +4265,7 @@
       </c>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>573</v>
       </c>
@@ -4238,7 +4274,7 @@
       </c>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>573</v>
       </c>
@@ -4250,7 +4286,7 @@
       </c>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>573</v>
       </c>
@@ -4259,7 +4295,7 @@
       </c>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>573</v>
       </c>
@@ -4271,7 +4307,7 @@
       </c>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>573</v>
       </c>
@@ -4280,7 +4316,7 @@
       </c>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>573</v>
       </c>
@@ -4289,7 +4325,7 @@
       </c>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>573</v>
       </c>
@@ -4298,7 +4334,7 @@
       </c>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>573</v>
       </c>
@@ -4307,7 +4343,7 @@
       </c>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
         <v>573</v>
       </c>
@@ -4319,7 +4355,7 @@
       </c>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>573</v>
       </c>
@@ -4328,7 +4364,7 @@
       </c>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
         <v>573</v>
       </c>
@@ -4340,7 +4376,7 @@
       </c>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
         <v>573</v>
       </c>
@@ -4349,7 +4385,7 @@
       </c>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>573</v>
       </c>
@@ -4358,7 +4394,7 @@
       </c>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
         <v>573</v>
       </c>
@@ -4367,7 +4403,7 @@
       </c>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>573</v>
       </c>
@@ -4376,7 +4412,7 @@
       </c>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>573</v>
       </c>
@@ -4385,7 +4421,7 @@
       </c>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
         <v>573</v>
       </c>
@@ -4394,7 +4430,7 @@
       </c>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>573</v>
       </c>
@@ -4403,7 +4439,7 @@
       </c>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
         <v>573</v>
       </c>
@@ -4411,7 +4447,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
         <v>573</v>
       </c>
@@ -4419,7 +4455,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
         <v>573</v>
       </c>
@@ -4427,7 +4463,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
         <v>573</v>
       </c>
@@ -4435,7 +4471,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
         <v>573</v>
       </c>
@@ -4446,7 +4482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
         <v>573</v>
       </c>
@@ -4457,7 +4493,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
         <v>573</v>
       </c>
@@ -4465,7 +4501,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
         <v>573</v>
       </c>
@@ -4473,7 +4509,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
         <v>573</v>
       </c>
@@ -4482,7 +4518,7 @@
       </c>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
         <v>573</v>
       </c>
@@ -4490,7 +4526,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
         <v>573</v>
       </c>
@@ -4499,7 +4535,7 @@
       </c>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
         <v>573</v>
       </c>
@@ -4508,7 +4544,7 @@
       </c>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="6" t="s">
         <v>573</v>
       </c>
@@ -4517,7 +4553,7 @@
       </c>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
         <v>573</v>
       </c>
@@ -4526,7 +4562,7 @@
       </c>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
         <v>573</v>
       </c>
@@ -4534,7 +4570,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
         <v>573</v>
       </c>
@@ -4542,7 +4578,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
         <v>573</v>
       </c>
@@ -4550,7 +4586,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
         <v>573</v>
       </c>
@@ -4558,7 +4594,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
         <v>573</v>
       </c>
@@ -4566,7 +4602,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
         <v>573</v>
       </c>
@@ -4574,7 +4610,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
         <v>573</v>
       </c>
@@ -4582,7 +4618,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
         <v>573</v>
       </c>
@@ -4590,7 +4626,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
         <v>573</v>
       </c>
@@ -4598,7 +4634,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
         <v>573</v>
       </c>
@@ -4606,7 +4642,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
         <v>573</v>
       </c>
@@ -4614,7 +4650,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="6" t="s">
         <v>573</v>
       </c>
@@ -4622,7 +4658,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
         <v>573</v>
       </c>
@@ -4630,7 +4666,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
         <v>573</v>
       </c>
@@ -4638,7 +4674,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
         <v>573</v>
       </c>
@@ -4646,7 +4682,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
         <v>573</v>
       </c>
@@ -4654,7 +4690,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
         <v>573</v>
       </c>
@@ -4662,7 +4698,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="6" t="s">
         <v>573</v>
       </c>
@@ -4670,7 +4706,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
         <v>573</v>
       </c>
@@ -4678,7 +4714,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
         <v>573</v>
       </c>
@@ -4686,7 +4722,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
         <v>573</v>
       </c>
@@ -4694,7 +4730,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
         <v>573</v>
       </c>
@@ -4702,7 +4738,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
         <v>573</v>
       </c>
@@ -4710,7 +4746,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
         <v>573</v>
       </c>
@@ -4718,7 +4754,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="s">
         <v>573</v>
       </c>
@@ -4726,7 +4762,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
         <v>573</v>
       </c>
@@ -4734,7 +4770,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
         <v>573</v>
       </c>
@@ -4742,7 +4778,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="6" t="s">
         <v>573</v>
       </c>
@@ -4750,7 +4786,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="6" t="s">
         <v>573</v>
       </c>
@@ -4758,7 +4794,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="6" t="s">
         <v>573</v>
       </c>
@@ -4766,7 +4802,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="6" t="s">
         <v>573</v>
       </c>
@@ -4774,7 +4810,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="6" t="s">
         <v>573</v>
       </c>
@@ -4782,7 +4818,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="6" t="s">
         <v>573</v>
       </c>
@@ -4790,7 +4826,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="6" t="s">
         <v>573</v>
       </c>
@@ -4798,7 +4834,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" s="6" t="s">
         <v>573</v>
       </c>
@@ -4806,7 +4842,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="6" t="s">
         <v>573</v>
       </c>
@@ -4814,7 +4850,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
         <v>573</v>
       </c>
@@ -4822,7 +4858,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
         <v>573</v>
       </c>
@@ -4830,7 +4866,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
         <v>573</v>
       </c>
@@ -4838,7 +4874,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
         <v>573</v>
       </c>
@@ -4846,7 +4882,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" s="6" t="s">
         <v>573</v>
       </c>
@@ -4860,19 +4896,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E1BF5A-9D40-754F-98C1-3B489ED02366}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E1BF5A-9D40-754F-98C1-3B489ED02366}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>587</v>
       </c>
@@ -4886,7 +4922,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>528</v>
       </c>
@@ -4900,7 +4936,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>529</v>
       </c>
@@ -4914,7 +4950,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>530</v>
       </c>
@@ -4928,7 +4964,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>531</v>
       </c>
@@ -4942,7 +4978,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>532</v>
       </c>
@@ -4956,7 +4992,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>533</v>
       </c>
@@ -4970,7 +5006,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>534</v>
       </c>
@@ -4984,7 +5020,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>535</v>
       </c>
@@ -4998,7 +5034,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>536</v>
       </c>
@@ -5012,7 +5048,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>537</v>
       </c>
@@ -5026,7 +5062,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>538</v>
       </c>
@@ -5040,7 +5076,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>539</v>
       </c>
@@ -5054,7 +5090,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>540</v>
       </c>
@@ -5068,7 +5104,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>581</v>
       </c>
@@ -5082,7 +5118,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>582</v>
       </c>
@@ -5096,7 +5132,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>583</v>
       </c>
@@ -5110,7 +5146,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>584</v>
       </c>
@@ -5124,7 +5160,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>585</v>
       </c>
@@ -5138,64 +5174,93 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>591</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>591</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="B20" t="s">
-        <v>606</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="B22" t="s">
+        <v>606</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>1161</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="B21" t="s">
-        <v>606</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B23" t="s">
+        <v>606</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>1162</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>1165</v>
       </c>
-      <c r="B22" t="s">
-        <v>606</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B24" t="s">
+        <v>606</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>1172</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>1166</v>
       </c>
-      <c r="B23" t="s">
-        <v>606</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="B25" t="s">
+        <v>606</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>1171</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>1170</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5203,16 +5268,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05D49CD-491C-4440-858F-42EEE0666E89}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>587</v>
       </c>
@@ -5229,19 +5294,18 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>1111</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>1112</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>1113</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>546</v>
       </c>
@@ -5252,7 +5316,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>547</v>
       </c>
@@ -5263,7 +5327,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>548</v>
       </c>
@@ -5274,7 +5338,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>549</v>
       </c>
@@ -5285,7 +5349,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>550</v>
       </c>
@@ -5296,7 +5360,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>551</v>
       </c>
@@ -5307,7 +5371,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>552</v>
       </c>
@@ -5318,7 +5382,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>553</v>
       </c>
@@ -5329,7 +5393,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>554</v>
       </c>
@@ -5340,7 +5404,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>555</v>
       </c>
@@ -5351,7 +5415,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>556</v>
       </c>
@@ -5362,7 +5426,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>557</v>
       </c>
@@ -5373,7 +5437,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>558</v>
       </c>
@@ -5384,7 +5448,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>559</v>
       </c>
@@ -5395,7 +5459,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>560</v>
       </c>
@@ -5406,7 +5470,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>561</v>
       </c>
@@ -5417,7 +5481,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>562</v>
       </c>
@@ -5428,7 +5492,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>563</v>
       </c>
@@ -5439,7 +5503,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>564</v>
       </c>
@@ -5450,7 +5514,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>565</v>
       </c>
@@ -5461,7 +5525,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>566</v>
       </c>
@@ -5472,7 +5536,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>567</v>
       </c>
@@ -5483,7 +5547,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>568</v>
       </c>
@@ -5494,7 +5558,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>569</v>
       </c>
@@ -5505,7 +5569,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>570</v>
       </c>
@@ -5516,7 +5580,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>571</v>
       </c>
@@ -5527,7 +5591,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>572</v>
       </c>
@@ -5538,7 +5602,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
     </row>
   </sheetData>
@@ -5554,9 +5618,9 @@
       <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -5603,7 +5667,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5623,7 +5687,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5643,7 +5707,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -5663,7 +5727,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -5683,7 +5747,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -5703,7 +5767,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -5717,7 +5781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -5731,7 +5795,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -5745,7 +5809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -5759,7 +5823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -5773,7 +5837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -5787,7 +5851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>68</v>
       </c>
@@ -5795,7 +5859,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>70</v>
       </c>
@@ -5803,7 +5867,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>72</v>
       </c>
@@ -5811,7 +5875,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>74</v>
       </c>
@@ -5819,7 +5883,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>76</v>
       </c>
@@ -5827,7 +5891,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>78</v>
       </c>
@@ -5835,7 +5899,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>80</v>
       </c>
@@ -5843,7 +5907,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>82</v>
       </c>
@@ -5851,7 +5915,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>84</v>
       </c>
@@ -5859,7 +5923,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>86</v>
       </c>
@@ -5867,7 +5931,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>88</v>
       </c>
@@ -5875,7 +5939,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>90</v>
       </c>
@@ -5883,7 +5947,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>92</v>
       </c>
@@ -5891,7 +5955,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>94</v>
       </c>
@@ -5899,7 +5963,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>96</v>
       </c>
@@ -5907,7 +5971,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>98</v>
       </c>
@@ -5915,7 +5979,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>100</v>
       </c>
@@ -5923,7 +5987,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>102</v>
       </c>
@@ -5931,7 +5995,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>104</v>
       </c>
@@ -5939,7 +6003,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>106</v>
       </c>
@@ -5947,7 +6011,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>108</v>
       </c>
@@ -5955,7 +6019,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>110</v>
       </c>
@@ -5963,7 +6027,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>112</v>
       </c>
@@ -5971,7 +6035,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>114</v>
       </c>
@@ -5979,7 +6043,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>116</v>
       </c>
@@ -5987,7 +6051,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>118</v>
       </c>
@@ -5995,7 +6059,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>120</v>
       </c>
@@ -6003,7 +6067,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>122</v>
       </c>
@@ -6011,7 +6075,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>124</v>
       </c>
@@ -6019,7 +6083,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>126</v>
       </c>
@@ -6027,7 +6091,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>128</v>
       </c>
@@ -6035,7 +6099,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>130</v>
       </c>
@@ -6043,7 +6107,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>132</v>
       </c>
@@ -6051,7 +6115,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>134</v>
       </c>
@@ -6059,7 +6123,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>136</v>
       </c>
@@ -6067,7 +6131,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -6075,7 +6139,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>140</v>
       </c>
@@ -6083,7 +6147,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>142</v>
       </c>
@@ -6091,7 +6155,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>144</v>
       </c>
@@ -6099,7 +6163,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>146</v>
       </c>
@@ -6107,7 +6171,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>148</v>
       </c>
@@ -6115,7 +6179,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>150</v>
       </c>
@@ -6123,7 +6187,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>152</v>
       </c>
@@ -6131,7 +6195,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>154</v>
       </c>
@@ -6139,7 +6203,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>156</v>
       </c>
@@ -6147,7 +6211,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>158</v>
       </c>
@@ -6155,7 +6219,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>160</v>
       </c>
@@ -6163,7 +6227,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>162</v>
       </c>
@@ -6171,7 +6235,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -6179,7 +6243,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>166</v>
       </c>
@@ -6187,7 +6251,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>168</v>
       </c>
@@ -6195,7 +6259,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>170</v>
       </c>
@@ -6203,7 +6267,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>172</v>
       </c>
@@ -6211,7 +6275,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>174</v>
       </c>
@@ -6219,7 +6283,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>176</v>
       </c>
@@ -6227,7 +6291,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>178</v>
       </c>
@@ -6235,7 +6299,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>180</v>
       </c>
@@ -6246,7 +6310,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>182</v>
       </c>
@@ -6257,7 +6321,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>184</v>
       </c>
@@ -6268,7 +6332,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>186</v>
       </c>
@@ -6279,7 +6343,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>188</v>
       </c>
@@ -6290,7 +6354,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>190</v>
       </c>
@@ -6301,7 +6365,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>192</v>
       </c>
@@ -6312,7 +6376,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>580</v>
       </c>
@@ -6320,7 +6384,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>579</v>
       </c>
@@ -6328,7 +6392,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="1" t="s">
         <v>577</v>
       </c>
@@ -6345,13 +6409,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF684AE-A18A-4B41-BCB8-49268F8FF3CF}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>587</v>
       </c>
@@ -6365,7 +6429,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -6379,7 +6443,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>209</v>
       </c>
@@ -6393,7 +6457,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -6407,7 +6471,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>211</v>
       </c>
@@ -6421,7 +6485,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -6435,7 +6499,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -6449,7 +6513,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>214</v>
       </c>
@@ -6463,7 +6527,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>215</v>
       </c>
@@ -6477,7 +6541,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -6491,7 +6555,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -6505,7 +6569,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -6519,7 +6583,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -6533,7 +6597,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>220</v>
       </c>
@@ -6547,7 +6611,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>221</v>
       </c>
@@ -6561,7 +6625,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>222</v>
       </c>
@@ -6575,7 +6639,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>223</v>
       </c>
@@ -6589,7 +6653,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>224</v>
       </c>
@@ -6603,7 +6667,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>225</v>
       </c>
@@ -6617,7 +6681,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>226</v>
       </c>
@@ -6631,7 +6695,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>227</v>
       </c>
@@ -6645,7 +6709,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>228</v>
       </c>
@@ -6659,7 +6723,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>229</v>
       </c>
@@ -6673,7 +6737,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>230</v>
       </c>
@@ -6687,7 +6751,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>231</v>
       </c>
@@ -6701,7 +6765,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>232</v>
       </c>
@@ -6715,7 +6779,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>233</v>
       </c>
@@ -6729,7 +6793,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>234</v>
       </c>
@@ -6743,7 +6807,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>235</v>
       </c>
@@ -6757,7 +6821,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>236</v>
       </c>
@@ -6771,7 +6835,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>237</v>
       </c>
@@ -6785,7 +6849,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>238</v>
       </c>
@@ -6799,7 +6863,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -6813,7 +6877,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>240</v>
       </c>
@@ -6827,7 +6891,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>241</v>
       </c>
@@ -6841,7 +6905,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>242</v>
       </c>
@@ -6855,7 +6919,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>243</v>
       </c>
@@ -6869,7 +6933,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>244</v>
       </c>
@@ -6883,7 +6947,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>245</v>
       </c>
@@ -6897,7 +6961,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>246</v>
       </c>
@@ -6911,7 +6975,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>247</v>
       </c>
@@ -6925,7 +6989,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>248</v>
       </c>
@@ -6939,7 +7003,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>249</v>
       </c>
@@ -6953,7 +7017,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>250</v>
       </c>
@@ -6967,7 +7031,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>251</v>
       </c>
@@ -6981,7 +7045,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>252</v>
       </c>
@@ -6995,7 +7059,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>253</v>
       </c>
@@ -7009,7 +7073,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>254</v>
       </c>
@@ -7023,7 +7087,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>255</v>
       </c>
@@ -7037,7 +7101,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>256</v>
       </c>
@@ -7051,7 +7115,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>257</v>
       </c>
@@ -7065,7 +7129,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>258</v>
       </c>
@@ -7079,7 +7143,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>259</v>
       </c>
@@ -7093,7 +7157,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>260</v>
       </c>
@@ -7107,7 +7171,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>261</v>
       </c>
@@ -7121,7 +7185,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>262</v>
       </c>
@@ -7135,7 +7199,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>263</v>
       </c>
@@ -7149,7 +7213,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>264</v>
       </c>
@@ -7163,7 +7227,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>265</v>
       </c>
@@ -7177,7 +7241,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>266</v>
       </c>
@@ -7191,7 +7255,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>267</v>
       </c>
@@ -7205,7 +7269,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>268</v>
       </c>
@@ -7219,7 +7283,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>269</v>
       </c>
@@ -7233,7 +7297,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>698</v>
       </c>
@@ -7247,7 +7311,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>271</v>
       </c>
@@ -7261,7 +7325,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>272</v>
       </c>
@@ -7275,7 +7339,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>273</v>
       </c>
@@ -7289,7 +7353,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>274</v>
       </c>
@@ -7303,7 +7367,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>275</v>
       </c>
@@ -7317,7 +7381,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>276</v>
       </c>
@@ -7331,7 +7395,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>277</v>
       </c>
@@ -7345,7 +7409,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>278</v>
       </c>
@@ -7359,7 +7423,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>279</v>
       </c>
@@ -7373,7 +7437,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>281</v>
       </c>
@@ -7387,7 +7451,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>283</v>
       </c>
@@ -7401,7 +7465,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>286</v>
       </c>
@@ -7415,7 +7479,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>287</v>
       </c>
@@ -7429,7 +7493,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>288</v>
       </c>
@@ -7443,7 +7507,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>289</v>
       </c>
@@ -7457,7 +7521,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>290</v>
       </c>
@@ -7471,7 +7535,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>291</v>
       </c>
@@ -7485,7 +7549,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>292</v>
       </c>
@@ -7499,7 +7563,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>293</v>
       </c>
@@ -7513,7 +7577,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>294</v>
       </c>
@@ -7527,7 +7591,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>295</v>
       </c>
@@ -7541,7 +7605,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>296</v>
       </c>
@@ -7555,7 +7619,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>297</v>
       </c>
@@ -7569,7 +7633,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>298</v>
       </c>
@@ -7583,7 +7647,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>299</v>
       </c>
@@ -7597,7 +7661,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>300</v>
       </c>
@@ -7611,7 +7675,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>301</v>
       </c>
@@ -7625,7 +7689,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>302</v>
       </c>
@@ -7639,7 +7703,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>294</v>
       </c>
@@ -7662,16 +7726,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395A2342-B76D-F945-AFD5-0517DD67CEF9}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.8125" style="6"/>
+    <col min="1" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7697,7 +7761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>573</v>
       </c>
@@ -7705,7 +7769,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>573</v>
       </c>
@@ -7713,7 +7777,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>573</v>
       </c>
@@ -7721,7 +7785,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>573</v>
       </c>
@@ -7729,7 +7793,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>573</v>
       </c>
@@ -7737,7 +7801,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>573</v>
       </c>
@@ -7745,7 +7809,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>573</v>
       </c>
@@ -7753,7 +7817,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>573</v>
       </c>
@@ -7761,7 +7825,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>573</v>
       </c>
@@ -7769,7 +7833,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>573</v>
       </c>
@@ -7777,7 +7841,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>573</v>
       </c>
@@ -7785,7 +7849,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>573</v>
       </c>
@@ -7793,7 +7857,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>573</v>
       </c>
@@ -7801,7 +7865,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>573</v>
       </c>
@@ -7811,7 +7875,7 @@
       <c r="H15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>573</v>
       </c>
@@ -7822,7 +7886,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>573</v>
       </c>
@@ -7832,7 +7896,7 @@
       <c r="H17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>573</v>
       </c>
@@ -7842,7 +7906,7 @@
       <c r="H18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>573</v>
       </c>
@@ -7853,7 +7917,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>573</v>
       </c>
@@ -7864,7 +7928,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>573</v>
       </c>
@@ -7874,7 +7938,7 @@
       <c r="H21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>573</v>
       </c>
@@ -7884,7 +7948,7 @@
       <c r="H22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>573</v>
       </c>
@@ -7894,7 +7958,7 @@
       <c r="H23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>573</v>
       </c>
@@ -7904,7 +7968,7 @@
       <c r="H24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>573</v>
       </c>
@@ -7912,7 +7976,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>573</v>
       </c>
@@ -7920,7 +7984,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>573</v>
       </c>
@@ -7928,7 +7992,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>573</v>
       </c>
@@ -7936,7 +8000,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>573</v>
       </c>
@@ -7945,7 +8009,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>573</v>
       </c>
@@ -7954,7 +8018,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>573</v>
       </c>
@@ -7963,7 +8027,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>573</v>
       </c>
@@ -7972,7 +8036,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
         <v>573</v>
       </c>
@@ -7984,7 +8048,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>573</v>
       </c>
@@ -7993,7 +8057,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
         <v>573</v>
       </c>
@@ -8005,7 +8069,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
         <v>573</v>
       </c>
@@ -8014,7 +8078,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>573</v>
       </c>
@@ -8023,7 +8087,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
         <v>573</v>
       </c>
@@ -8032,7 +8096,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>573</v>
       </c>
@@ -8041,7 +8105,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>573</v>
       </c>
@@ -8053,7 +8117,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
         <v>573</v>
       </c>
@@ -8062,7 +8126,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>573</v>
       </c>
@@ -8074,7 +8138,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
         <v>573</v>
       </c>
@@ -8083,7 +8147,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
         <v>573</v>
       </c>
@@ -8092,7 +8156,7 @@
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
         <v>573</v>
       </c>
@@ -8100,7 +8164,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
         <v>573</v>
       </c>
@@ -8108,7 +8172,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
         <v>573</v>
       </c>
@@ -8116,7 +8180,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
         <v>573</v>
       </c>
@@ -8124,7 +8188,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
         <v>573</v>
       </c>
@@ -8132,7 +8196,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
         <v>573</v>
       </c>
@@ -8140,7 +8204,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
         <v>573</v>
       </c>
@@ -8148,7 +8212,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
         <v>573</v>
       </c>
@@ -8156,7 +8220,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
         <v>573</v>
       </c>
@@ -8164,7 +8228,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
         <v>573</v>
       </c>
@@ -8175,7 +8239,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="6" t="s">
         <v>573</v>
       </c>
@@ -8183,7 +8247,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
         <v>573</v>
       </c>
@@ -8194,7 +8258,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
         <v>573</v>
       </c>
@@ -8202,7 +8266,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
         <v>573</v>
       </c>
@@ -8210,7 +8274,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
         <v>573</v>
       </c>
@@ -8218,7 +8282,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
         <v>573</v>
       </c>
@@ -8226,7 +8290,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
         <v>573</v>
       </c>
@@ -8237,7 +8301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
         <v>573</v>
       </c>
@@ -8245,7 +8309,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
         <v>573</v>
       </c>
@@ -8256,7 +8320,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
         <v>573</v>
       </c>
@@ -8264,7 +8328,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
         <v>573</v>
       </c>
@@ -8272,7 +8336,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
         <v>573</v>
       </c>
@@ -8280,7 +8344,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
         <v>573</v>
       </c>
@@ -8288,7 +8352,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="6" t="s">
         <v>573</v>
       </c>
@@ -8296,7 +8360,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
         <v>573</v>
       </c>
@@ -8304,7 +8368,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
         <v>573</v>
       </c>
@@ -8312,7 +8376,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
         <v>573</v>
       </c>
@@ -8320,7 +8384,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
         <v>573</v>
       </c>
@@ -8328,7 +8392,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
         <v>573</v>
       </c>
@@ -8336,7 +8400,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="6" t="s">
         <v>573</v>
       </c>
@@ -8344,7 +8408,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
         <v>573</v>
       </c>
@@ -8352,7 +8416,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
         <v>573</v>
       </c>
@@ -8360,7 +8424,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
         <v>573</v>
       </c>
@@ -8368,7 +8432,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
         <v>573</v>
       </c>
@@ -8376,7 +8440,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
         <v>573</v>
       </c>
@@ -8384,7 +8448,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
         <v>573</v>
       </c>
@@ -8392,7 +8456,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="s">
         <v>573</v>
       </c>
@@ -8400,7 +8464,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
         <v>573</v>
       </c>
@@ -8415,15 +8479,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1543CEEE-D9A7-3A4D-BA94-E7CFF9B3D402}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>587</v>
       </c>
@@ -8437,7 +8501,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>304</v>
       </c>
@@ -8451,7 +8515,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>305</v>
       </c>
@@ -8465,7 +8529,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>306</v>
       </c>
@@ -8479,7 +8543,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>307</v>
       </c>
@@ -8493,7 +8557,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>308</v>
       </c>
@@ -8507,7 +8571,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>309</v>
       </c>
@@ -8521,7 +8585,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>310</v>
       </c>
@@ -8535,7 +8599,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>311</v>
       </c>
@@ -8549,7 +8613,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>312</v>
       </c>
@@ -8563,7 +8627,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>313</v>
       </c>
@@ -8577,7 +8641,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>314</v>
       </c>
@@ -8591,7 +8655,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>315</v>
       </c>
@@ -8605,7 +8669,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>316</v>
       </c>
@@ -8619,7 +8683,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>317</v>
       </c>
@@ -8633,7 +8697,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>318</v>
       </c>
@@ -8647,7 +8711,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>319</v>
       </c>
@@ -8661,7 +8725,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>320</v>
       </c>
@@ -8675,7 +8739,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>321</v>
       </c>
@@ -8689,7 +8753,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>322</v>
       </c>
@@ -8703,7 +8767,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>323</v>
       </c>
@@ -8717,7 +8781,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>324</v>
       </c>
@@ -8731,7 +8795,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>325</v>
       </c>
@@ -8745,7 +8809,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>326</v>
       </c>
@@ -8759,7 +8823,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>327</v>
       </c>
@@ -8773,7 +8837,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>328</v>
       </c>
@@ -8787,7 +8851,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>329</v>
       </c>
@@ -8801,7 +8865,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>330</v>
       </c>
@@ -8815,7 +8879,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>331</v>
       </c>
@@ -8829,7 +8893,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>332</v>
       </c>
@@ -8843,7 +8907,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>333</v>
       </c>
@@ -8857,7 +8921,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>334</v>
       </c>
@@ -8871,7 +8935,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>335</v>
       </c>
@@ -8885,7 +8949,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>336</v>
       </c>
@@ -8899,7 +8963,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>337</v>
       </c>
@@ -8913,7 +8977,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>338</v>
       </c>
@@ -8927,7 +8991,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>339</v>
       </c>
@@ -8941,7 +9005,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>340</v>
       </c>
@@ -8955,7 +9019,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>341</v>
       </c>
@@ -8969,7 +9033,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>342</v>
       </c>
@@ -8983,7 +9047,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>343</v>
       </c>
@@ -8997,7 +9061,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>344</v>
       </c>
@@ -9011,7 +9075,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>345</v>
       </c>
@@ -9025,7 +9089,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>346</v>
       </c>
@@ -9039,7 +9103,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>347</v>
       </c>
@@ -9053,7 +9117,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>348</v>
       </c>
@@ -9067,7 +9131,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>349</v>
       </c>
@@ -9081,7 +9145,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>350</v>
       </c>
@@ -9095,7 +9159,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>351</v>
       </c>
@@ -9109,7 +9173,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>352</v>
       </c>
@@ -9123,7 +9187,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>353</v>
       </c>
@@ -9137,7 +9201,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>354</v>
       </c>
@@ -9151,7 +9215,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>355</v>
       </c>
@@ -9165,7 +9229,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>356</v>
       </c>
@@ -9179,7 +9243,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>357</v>
       </c>
@@ -9193,7 +9257,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>358</v>
       </c>
@@ -9207,7 +9271,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>359</v>
       </c>
@@ -9221,7 +9285,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>360</v>
       </c>
@@ -9235,7 +9299,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>361</v>
       </c>
@@ -9249,7 +9313,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>362</v>
       </c>
@@ -9263,7 +9327,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>363</v>
       </c>
@@ -9277,7 +9341,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>364</v>
       </c>
@@ -9291,7 +9355,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>365</v>
       </c>
@@ -9305,7 +9369,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>366</v>
       </c>
@@ -9319,7 +9383,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>839</v>
       </c>
@@ -9333,7 +9397,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>842</v>
       </c>
@@ -9347,7 +9411,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>845</v>
       </c>
@@ -9361,7 +9425,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>848</v>
       </c>
@@ -9375,7 +9439,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>851</v>
       </c>
@@ -9389,7 +9453,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>854</v>
       </c>
@@ -9403,7 +9467,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>857</v>
       </c>
@@ -9417,7 +9481,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>367</v>
       </c>
@@ -9431,7 +9495,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>368</v>
       </c>
@@ -9445,7 +9509,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>369</v>
       </c>
@@ -9459,7 +9523,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>370</v>
       </c>
@@ -9473,7 +9537,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>371</v>
       </c>
@@ -9487,7 +9551,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>372</v>
       </c>
@@ -9501,7 +9565,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>373</v>
       </c>
@@ -9515,7 +9579,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>374</v>
       </c>
@@ -9529,7 +9593,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>375</v>
       </c>
@@ -9543,7 +9607,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>376</v>
       </c>
@@ -9557,7 +9621,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>377</v>
       </c>
@@ -9571,7 +9635,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>378</v>
       </c>
@@ -9585,7 +9649,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>379</v>
       </c>
@@ -9599,7 +9663,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>380</v>
       </c>
@@ -9611,34 +9675,6 @@
       </c>
       <c r="D85" t="s">
         <v>880</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A86" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B86" t="s">
-        <v>591</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A87" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B87" t="s">
-        <v>591</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1110</v>
       </c>
     </row>
   </sheetData>
@@ -9650,13 +9686,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAEFDBF-41FD-3947-89D1-12A935501BFE}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B127"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9682,7 +9718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>573</v>
       </c>
@@ -9690,7 +9726,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>573</v>
       </c>
@@ -9698,7 +9734,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>573</v>
       </c>
@@ -9706,7 +9742,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>573</v>
       </c>
@@ -9714,7 +9750,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>573</v>
       </c>
@@ -9722,7 +9758,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>573</v>
       </c>
@@ -9730,7 +9766,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>573</v>
       </c>
@@ -9738,7 +9774,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>573</v>
       </c>
@@ -9746,7 +9782,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>573</v>
       </c>
@@ -9754,7 +9790,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>573</v>
       </c>
@@ -9762,7 +9798,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>573</v>
       </c>
@@ -9770,7 +9806,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>573</v>
       </c>
@@ -9778,7 +9814,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>573</v>
       </c>
@@ -9786,7 +9822,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>573</v>
       </c>
@@ -9794,7 +9830,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>573</v>
       </c>
@@ -9802,7 +9838,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>573</v>
       </c>
@@ -9810,7 +9846,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>573</v>
       </c>
@@ -9818,7 +9854,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>573</v>
       </c>
@@ -9826,7 +9862,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>573</v>
       </c>
@@ -9834,7 +9870,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>573</v>
       </c>
@@ -9842,7 +9878,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>573</v>
       </c>
@@ -9850,7 +9886,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>573</v>
       </c>
@@ -9858,7 +9894,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>573</v>
       </c>
@@ -9866,7 +9902,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>573</v>
       </c>
@@ -9874,7 +9910,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>573</v>
       </c>
@@ -9882,7 +9918,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>573</v>
       </c>
@@ -9890,7 +9926,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>573</v>
       </c>
@@ -9898,7 +9934,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>573</v>
       </c>
@@ -9906,7 +9942,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>573</v>
       </c>
@@ -9914,7 +9950,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>573</v>
       </c>
@@ -9922,7 +9958,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>573</v>
       </c>
@@ -9930,7 +9966,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>573</v>
       </c>
@@ -9938,7 +9974,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>573</v>
       </c>
@@ -9946,7 +9982,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>573</v>
       </c>
@@ -9954,7 +9990,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>573</v>
       </c>
@@ -9962,7 +9998,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>573</v>
       </c>
@@ -9970,7 +10006,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>573</v>
       </c>
@@ -9978,7 +10014,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>573</v>
       </c>
@@ -9986,7 +10022,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>573</v>
       </c>
@@ -9994,7 +10030,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>573</v>
       </c>
@@ -10002,7 +10038,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>573</v>
       </c>
@@ -10010,7 +10046,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>573</v>
       </c>
@@ -10018,7 +10054,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>573</v>
       </c>
@@ -10026,7 +10062,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>573</v>
       </c>
@@ -10034,7 +10070,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>573</v>
       </c>
@@ -10042,7 +10078,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>573</v>
       </c>
@@ -10050,7 +10086,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>573</v>
       </c>
@@ -10058,7 +10094,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>573</v>
       </c>
@@ -10066,7 +10102,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>573</v>
       </c>
@@ -10074,7 +10110,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>573</v>
       </c>
@@ -10082,7 +10118,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>573</v>
       </c>
@@ -10090,7 +10126,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>573</v>
       </c>
@@ -10098,7 +10134,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>573</v>
       </c>
@@ -10106,7 +10142,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>573</v>
       </c>
@@ -10114,7 +10150,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>573</v>
       </c>
@@ -10122,7 +10158,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>573</v>
       </c>
@@ -10130,7 +10166,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>573</v>
       </c>
@@ -10138,7 +10174,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>573</v>
       </c>
@@ -10146,7 +10182,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>573</v>
       </c>
@@ -10154,7 +10190,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>573</v>
       </c>
@@ -10162,7 +10198,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>573</v>
       </c>
@@ -10170,7 +10206,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>573</v>
       </c>
@@ -10178,7 +10214,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>573</v>
       </c>
@@ -10186,7 +10222,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>573</v>
       </c>
@@ -10194,7 +10230,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>573</v>
       </c>
@@ -10202,7 +10238,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>573</v>
       </c>
@@ -10210,7 +10246,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>573</v>
       </c>
@@ -10218,7 +10254,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>573</v>
       </c>
@@ -10226,7 +10262,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>573</v>
       </c>
@@ -10234,7 +10270,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>573</v>
       </c>
@@ -10242,7 +10278,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>573</v>
       </c>
@@ -10250,7 +10286,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>573</v>
       </c>
@@ -10258,7 +10294,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>573</v>
       </c>
@@ -10266,7 +10302,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>573</v>
       </c>
@@ -10274,7 +10310,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>573</v>
       </c>
@@ -10282,7 +10318,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>573</v>
       </c>
@@ -10290,7 +10326,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>573</v>
       </c>
@@ -10298,7 +10334,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>573</v>
       </c>
@@ -10306,7 +10342,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>573</v>
       </c>
@@ -10314,7 +10350,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>573</v>
       </c>
@@ -10322,7 +10358,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>573</v>
       </c>
@@ -10330,7 +10366,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>573</v>
       </c>
@@ -10338,7 +10374,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>573</v>
       </c>
@@ -10346,7 +10382,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>573</v>
       </c>
@@ -10354,7 +10390,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>573</v>
       </c>
@@ -10362,7 +10398,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>573</v>
       </c>
@@ -10370,7 +10406,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>573</v>
       </c>
@@ -10378,7 +10414,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>573</v>
       </c>
@@ -10386,7 +10422,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>573</v>
       </c>
@@ -10394,7 +10430,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>573</v>
       </c>
@@ -10402,7 +10438,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>573</v>
       </c>
@@ -10410,7 +10446,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>573</v>
       </c>
@@ -10418,7 +10454,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>573</v>
       </c>
@@ -10426,7 +10462,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>573</v>
       </c>
@@ -10434,7 +10470,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>573</v>
       </c>
@@ -10442,7 +10478,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>573</v>
       </c>
@@ -10450,7 +10486,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>573</v>
       </c>
@@ -10458,7 +10494,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>573</v>
       </c>
@@ -10466,7 +10502,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>573</v>
       </c>
@@ -10474,7 +10510,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>573</v>
       </c>
@@ -10482,7 +10518,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>573</v>
       </c>
@@ -10490,7 +10526,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>573</v>
       </c>
@@ -10498,7 +10534,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>573</v>
       </c>
@@ -10506,7 +10542,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>573</v>
       </c>
@@ -10514,7 +10550,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>573</v>
       </c>
@@ -10522,7 +10558,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>573</v>
       </c>
@@ -10530,7 +10566,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>573</v>
       </c>
@@ -10538,7 +10574,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>573</v>
       </c>
@@ -10546,7 +10582,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>573</v>
       </c>
@@ -10554,7 +10590,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>573</v>
       </c>
@@ -10562,7 +10598,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>573</v>
       </c>
@@ -10570,7 +10606,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>573</v>
       </c>
@@ -10578,7 +10614,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>573</v>
       </c>
@@ -10586,7 +10622,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>573</v>
       </c>
@@ -10594,7 +10630,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>573</v>
       </c>
@@ -10602,7 +10638,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>573</v>
       </c>
@@ -10610,7 +10646,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>573</v>
       </c>
@@ -10618,7 +10654,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>573</v>
       </c>
@@ -10626,7 +10662,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>573</v>
       </c>
@@ -10634,7 +10670,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>573</v>
       </c>
@@ -10642,7 +10678,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>573</v>
       </c>
@@ -10650,7 +10686,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>573</v>
       </c>
@@ -10658,7 +10694,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>573</v>
       </c>
@@ -10666,7 +10702,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>573</v>
       </c>
@@ -10674,7 +10710,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>573</v>
       </c>
@@ -10682,7 +10718,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>573</v>
       </c>
@@ -10699,13 +10735,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81486BC4-6059-E04B-B436-956308CF96F1}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A117" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>587</v>
       </c>
@@ -10719,7 +10755,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>402</v>
       </c>
@@ -10733,7 +10769,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>403</v>
       </c>
@@ -10747,7 +10783,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>404</v>
       </c>
@@ -10761,7 +10797,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>405</v>
       </c>
@@ -10775,7 +10811,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>406</v>
       </c>
@@ -10789,7 +10825,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>407</v>
       </c>
@@ -10803,7 +10839,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>408</v>
       </c>
@@ -10817,7 +10853,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>409</v>
       </c>
@@ -10831,7 +10867,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>410</v>
       </c>
@@ -10845,7 +10881,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>411</v>
       </c>
@@ -10859,7 +10895,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>412</v>
       </c>
@@ -10873,7 +10909,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>413</v>
       </c>
@@ -10887,7 +10923,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>414</v>
       </c>
@@ -10901,7 +10937,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>415</v>
       </c>
@@ -10915,7 +10951,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>416</v>
       </c>
@@ -10929,7 +10965,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>417</v>
       </c>
@@ -10943,7 +10979,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>418</v>
       </c>
@@ -10957,7 +10993,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>419</v>
       </c>
@@ -10971,7 +11007,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>420</v>
       </c>
@@ -10985,7 +11021,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>421</v>
       </c>
@@ -10999,7 +11035,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>422</v>
       </c>
@@ -11013,7 +11049,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>423</v>
       </c>
@@ -11027,7 +11063,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>424</v>
       </c>
@@ -11041,7 +11077,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>425</v>
       </c>
@@ -11055,7 +11091,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>426</v>
       </c>
@@ -11069,7 +11105,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>427</v>
       </c>
@@ -11083,7 +11119,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>428</v>
       </c>
@@ -11097,7 +11133,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>429</v>
       </c>
@@ -11111,7 +11147,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>430</v>
       </c>
@@ -11125,7 +11161,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>431</v>
       </c>
@@ -11139,7 +11175,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>432</v>
       </c>
@@ -11153,7 +11189,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>433</v>
       </c>
@@ -11167,7 +11203,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>434</v>
       </c>
@@ -11181,7 +11217,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>435</v>
       </c>
@@ -11195,7 +11231,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>436</v>
       </c>
@@ -11209,7 +11245,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>437</v>
       </c>
@@ -11223,7 +11259,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>438</v>
       </c>
@@ -11237,7 +11273,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>439</v>
       </c>
@@ -11251,7 +11287,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>440</v>
       </c>
@@ -11265,7 +11301,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>441</v>
       </c>
@@ -11279,7 +11315,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>442</v>
       </c>
@@ -11293,7 +11329,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>443</v>
       </c>
@@ -11307,7 +11343,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>444</v>
       </c>
@@ -11321,7 +11357,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>445</v>
       </c>
@@ -11335,7 +11371,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>446</v>
       </c>
@@ -11349,7 +11385,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>447</v>
       </c>
@@ -11363,7 +11399,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>448</v>
       </c>
@@ -11377,7 +11413,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>449</v>
       </c>
@@ -11391,7 +11427,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>450</v>
       </c>
@@ -11405,7 +11441,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>451</v>
       </c>
@@ -11419,7 +11455,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>452</v>
       </c>
@@ -11433,7 +11469,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>453</v>
       </c>
@@ -11447,7 +11483,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>454</v>
       </c>
@@ -11461,7 +11497,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>455</v>
       </c>
@@ -11475,7 +11511,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>456</v>
       </c>
@@ -11489,7 +11525,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>457</v>
       </c>
@@ -11503,7 +11539,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>458</v>
       </c>
@@ -11517,7 +11553,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>459</v>
       </c>
@@ -11531,7 +11567,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>460</v>
       </c>
@@ -11545,7 +11581,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>461</v>
       </c>
@@ -11559,7 +11595,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>462</v>
       </c>
@@ -11573,7 +11609,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>463</v>
       </c>
@@ -11587,7 +11623,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>464</v>
       </c>
@@ -11601,7 +11637,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>465</v>
       </c>
@@ -11615,7 +11651,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>466</v>
       </c>
@@ -11629,7 +11665,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>467</v>
       </c>
@@ -11643,7 +11679,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>468</v>
       </c>
@@ -11657,7 +11693,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>469</v>
       </c>
@@ -11671,7 +11707,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>470</v>
       </c>
@@ -11685,7 +11721,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>471</v>
       </c>
@@ -11699,7 +11735,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>472</v>
       </c>
@@ -11713,7 +11749,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>473</v>
       </c>
@@ -11727,7 +11763,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>474</v>
       </c>
@@ -11741,7 +11777,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>475</v>
       </c>
@@ -11755,7 +11791,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>476</v>
       </c>
@@ -11769,7 +11805,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>477</v>
       </c>
@@ -11783,7 +11819,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>478</v>
       </c>
@@ -11797,7 +11833,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>479</v>
       </c>
@@ -11811,7 +11847,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>480</v>
       </c>
@@ -11825,7 +11861,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>481</v>
       </c>
@@ -11839,7 +11875,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>482</v>
       </c>
@@ -11853,7 +11889,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>483</v>
       </c>
@@ -11867,7 +11903,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>484</v>
       </c>
@@ -11881,7 +11917,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>485</v>
       </c>
@@ -11895,7 +11931,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>486</v>
       </c>
@@ -11909,7 +11945,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>487</v>
       </c>
@@ -11923,7 +11959,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>488</v>
       </c>
@@ -11937,7 +11973,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>489</v>
       </c>
@@ -11951,7 +11987,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>490</v>
       </c>
@@ -11965,7 +12001,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>491</v>
       </c>
@@ -11979,7 +12015,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>492</v>
       </c>
@@ -11993,7 +12029,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>493</v>
       </c>
@@ -12007,7 +12043,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>494</v>
       </c>
@@ -12021,7 +12057,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>495</v>
       </c>
@@ -12035,7 +12071,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>496</v>
       </c>
@@ -12049,7 +12085,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>497</v>
       </c>
@@ -12063,7 +12099,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>498</v>
       </c>
@@ -12077,7 +12113,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>499</v>
       </c>
@@ -12091,7 +12127,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>500</v>
       </c>
@@ -12105,7 +12141,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>501</v>
       </c>
@@ -12119,7 +12155,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>502</v>
       </c>
@@ -12133,7 +12169,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>503</v>
       </c>
@@ -12147,7 +12183,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>504</v>
       </c>
@@ -12161,7 +12197,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>505</v>
       </c>
@@ -12175,7 +12211,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>506</v>
       </c>
@@ -12189,7 +12225,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>507</v>
       </c>
@@ -12203,7 +12239,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>508</v>
       </c>
@@ -12217,7 +12253,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>509</v>
       </c>
@@ -12231,7 +12267,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>510</v>
       </c>
@@ -12245,7 +12281,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>511</v>
       </c>
@@ -12259,7 +12295,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>512</v>
       </c>
@@ -12273,7 +12309,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>513</v>
       </c>
@@ -12287,7 +12323,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>514</v>
       </c>
@@ -12301,7 +12337,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>515</v>
       </c>
@@ -12315,7 +12351,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>516</v>
       </c>
@@ -12329,7 +12365,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>517</v>
       </c>
@@ -12343,7 +12379,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>518</v>
       </c>
@@ -12357,7 +12393,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>519</v>
       </c>
@@ -12371,7 +12407,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>520</v>
       </c>
@@ -12385,7 +12421,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>521</v>
       </c>
@@ -12399,7 +12435,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>522</v>
       </c>
@@ -12413,7 +12449,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>523</v>
       </c>
@@ -12427,7 +12463,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>524</v>
       </c>
@@ -12441,7 +12477,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>525</v>
       </c>
@@ -12455,7 +12491,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>526</v>
       </c>
@@ -12469,7 +12505,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>527</v>
       </c>
@@ -12492,13 +12528,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8327FBB7-1AF1-3B49-BE02-FC7DDE10F278}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12524,7 +12560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>573</v>
       </c>
@@ -12532,7 +12568,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>573</v>
       </c>
@@ -12540,7 +12576,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>573</v>
       </c>
@@ -12548,7 +12584,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>573</v>
       </c>
@@ -12556,7 +12592,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>573</v>
       </c>
@@ -12564,7 +12600,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>573</v>
       </c>
@@ -12572,7 +12608,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>573</v>
       </c>
@@ -12580,7 +12616,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>573</v>
       </c>
@@ -12588,7 +12624,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>573</v>
       </c>
@@ -12596,7 +12632,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>573</v>
       </c>
@@ -12604,7 +12640,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>573</v>
       </c>
@@ -12612,7 +12648,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>573</v>
       </c>
@@ -12620,7 +12656,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>573</v>
       </c>
@@ -12628,7 +12664,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>573</v>
       </c>
@@ -12636,7 +12672,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>573</v>
       </c>
@@ -12644,7 +12680,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>573</v>
       </c>
@@ -12652,7 +12688,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>573</v>
       </c>
@@ -12660,7 +12696,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>573</v>
       </c>
@@ -12668,7 +12704,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>573</v>
       </c>
@@ -12676,7 +12712,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>573</v>
       </c>
@@ -12684,7 +12720,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>573</v>
       </c>
@@ -12701,13 +12737,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B53A85-E827-8C4C-8BB8-B657434D7F58}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>587</v>
       </c>
@@ -12721,7 +12757,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>381</v>
       </c>
@@ -12735,7 +12771,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>382</v>
       </c>
@@ -12749,7 +12785,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>383</v>
       </c>
@@ -12763,7 +12799,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>384</v>
       </c>
@@ -12777,7 +12813,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>385</v>
       </c>
@@ -12791,7 +12827,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>386</v>
       </c>
@@ -12805,7 +12841,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>387</v>
       </c>
@@ -12819,7 +12855,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>388</v>
       </c>
@@ -12833,7 +12869,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>389</v>
       </c>
@@ -12847,7 +12883,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>390</v>
       </c>
@@ -12861,7 +12897,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>391</v>
       </c>
@@ -12875,7 +12911,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>392</v>
       </c>
@@ -12889,7 +12925,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>393</v>
       </c>
@@ -12903,7 +12939,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>394</v>
       </c>
@@ -12917,7 +12953,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>395</v>
       </c>
@@ -12931,7 +12967,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>396</v>
       </c>
@@ -12945,7 +12981,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>397</v>
       </c>
@@ -12959,7 +12995,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>398</v>
       </c>
@@ -12973,7 +13009,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>399</v>
       </c>
@@ -12987,7 +13023,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>400</v>
       </c>
@@ -13001,7 +13037,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>401</v>
       </c>
@@ -13024,13 +13060,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D756D66F-C8F8-1846-9227-AF8942E6C619}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13056,12 +13092,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D2" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>573</v>
       </c>
@@ -13075,12 +13111,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>573</v>
       </c>
@@ -13088,7 +13124,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>573</v>
       </c>
@@ -13096,7 +13132,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>573</v>
       </c>
@@ -13104,7 +13140,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>573</v>
       </c>
@@ -13112,7 +13148,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>573</v>
       </c>
@@ -13120,7 +13156,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>573</v>
       </c>
@@ -13128,7 +13164,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>573</v>
       </c>
@@ -13136,7 +13172,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>573</v>
       </c>
@@ -13144,7 +13180,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>573</v>
       </c>
@@ -13152,7 +13188,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>573</v>
       </c>
@@ -13160,7 +13196,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>573</v>
       </c>
@@ -13168,7 +13204,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>573</v>
       </c>
@@ -13176,7 +13212,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>573</v>
       </c>
@@ -13184,7 +13220,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>573</v>
       </c>
@@ -13195,7 +13231,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>573</v>
       </c>
@@ -13206,7 +13242,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>573</v>
       </c>
@@ -13217,7 +13253,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>573</v>
       </c>
@@ -13226,7 +13262,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>573</v>
       </c>
@@ -13239,7 +13275,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>573</v>
       </c>
@@ -13251,7 +13287,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>573</v>
       </c>
@@ -13260,7 +13296,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>573</v>
       </c>
@@ -13272,7 +13308,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>573</v>
       </c>
@@ -13285,7 +13321,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>573</v>
       </c>
@@ -13299,7 +13335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>573</v>
       </c>
@@ -13307,7 +13343,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>573</v>
       </c>
@@ -13315,7 +13351,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>573</v>
       </c>
@@ -13323,7 +13359,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>573</v>
       </c>
@@ -13331,7 +13367,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>573</v>
       </c>
@@ -13339,7 +13375,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>573</v>
       </c>
@@ -13347,7 +13383,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>573</v>
       </c>
@@ -13355,7 +13391,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>573</v>
       </c>
@@ -13363,7 +13399,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>573</v>
       </c>
@@ -13371,7 +13407,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>573</v>
       </c>
@@ -13379,7 +13415,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>573</v>
       </c>
@@ -13393,7 +13429,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>573</v>
       </c>
@@ -13401,7 +13437,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>573</v>
       </c>
@@ -13409,7 +13445,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>573</v>
       </c>
@@ -13417,7 +13453,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>573</v>
       </c>
@@ -13425,7 +13461,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>573</v>
       </c>
@@ -13433,7 +13469,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>573</v>
       </c>
@@ -13441,17 +13477,17 @@
         <v>572</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>573</v>
       </c>
@@ -13459,7 +13495,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>573</v>
       </c>
@@ -13467,7 +13503,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>573</v>
       </c>
@@ -13476,7 +13512,7 @@
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>573</v>
       </c>
@@ -13484,7 +13520,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>573</v>
       </c>
@@ -13492,7 +13528,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>573</v>
       </c>
@@ -13500,7 +13536,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>573</v>
       </c>

--- a/terms/teethTerms.xlsx
+++ b/terms/teethTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DF7D35-BCAC-9245-BD15-9B7498D6812D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C18CCF6-5F92-964C-959C-5C0D1F346192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16160" windowHeight="16620" firstSheet="3" activeTab="8" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="molars" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -63,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="1190">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -3579,6 +3586,60 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>in FOVT</t>
+  </si>
+  <si>
+    <t>upper secondary molar tooth 4 length</t>
+  </si>
+  <si>
+    <t>lower secondary molar tooth 4 length</t>
+  </si>
+  <si>
+    <t>upper secondary molar tooth 5 length</t>
+  </si>
+  <si>
+    <t>lower secondary molar tooth 5 legnth</t>
+  </si>
+  <si>
+    <t>upper secondary molar tooth 5 width</t>
+  </si>
+  <si>
+    <t>lower secondary molar tooth 5 width</t>
+  </si>
+  <si>
+    <t>upper secondary molar tooth 4 width</t>
+  </si>
+  <si>
+    <t>lower secondary molar tooth 4 width</t>
+  </si>
+  <si>
+    <t>lower secondary molar 4 width</t>
+  </si>
+  <si>
+    <t>upper secondary molar 4 width</t>
+  </si>
+  <si>
+    <t>lower secondary molar 4 length</t>
+  </si>
+  <si>
+    <t>upper secondary molar 4 length</t>
+  </si>
+  <si>
+    <t>lower secondary molar 5 width</t>
+  </si>
+  <si>
+    <t>upper secondary molar 5 width</t>
+  </si>
+  <si>
+    <t>lower secondary molar 5 length</t>
+  </si>
+  <si>
+    <t>upper secondary molar 5 length</t>
+  </si>
+  <si>
+    <t>proximal-distal axis</t>
   </si>
 </sst>
 </file>
@@ -4001,10 +4062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CA24E7-5FD2-BC4A-AA63-F254C54AF71B}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4039,6 +4100,9 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B2" s="6" t="s">
         <v>571</v>
       </c>
@@ -4047,6 +4111,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>571</v>
       </c>
@@ -4055,6 +4122,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>571</v>
       </c>
@@ -4063,6 +4133,9 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B5" s="6" t="s">
         <v>571</v>
       </c>
@@ -4074,6 +4147,9 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B6" s="6" t="s">
         <v>571</v>
       </c>
@@ -4082,6 +4158,9 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>571</v>
       </c>
@@ -4093,6 +4172,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>571</v>
       </c>
@@ -4102,6 +4184,9 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B9" s="6" t="s">
         <v>571</v>
       </c>
@@ -4111,6 +4196,9 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B10" s="6" t="s">
         <v>571</v>
       </c>
@@ -4120,6 +4208,9 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B11" s="6" t="s">
         <v>571</v>
       </c>
@@ -4130,6 +4221,9 @@
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B12" s="6" t="s">
         <v>571</v>
       </c>
@@ -4143,6 +4237,9 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>571</v>
       </c>
@@ -4153,6 +4250,9 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>571</v>
       </c>
@@ -4166,6 +4266,9 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>571</v>
       </c>
@@ -4185,7 +4288,7 @@
       <c r="I16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>571</v>
       </c>
@@ -4195,7 +4298,7 @@
       <c r="I17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>571</v>
       </c>
@@ -4205,7 +4308,7 @@
       <c r="I18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>571</v>
       </c>
@@ -4215,7 +4318,7 @@
       <c r="I19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>571</v>
       </c>
@@ -4225,7 +4328,7 @@
       <c r="I20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>571</v>
       </c>
@@ -4235,7 +4338,7 @@
       <c r="I21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>571</v>
       </c>
@@ -4245,7 +4348,10 @@
       <c r="I22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B23" s="6" t="s">
         <v>571</v>
       </c>
@@ -4253,7 +4359,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B24" s="6" t="s">
         <v>571</v>
       </c>
@@ -4262,7 +4371,10 @@
       </c>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B25" s="6" t="s">
         <v>571</v>
       </c>
@@ -4271,7 +4383,10 @@
       </c>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B26" s="6" t="s">
         <v>571</v>
       </c>
@@ -4283,7 +4398,10 @@
       </c>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B27" s="6" t="s">
         <v>571</v>
       </c>
@@ -4292,7 +4410,10 @@
       </c>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B28" s="6" t="s">
         <v>571</v>
       </c>
@@ -4304,7 +4425,10 @@
       </c>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B29" s="6" t="s">
         <v>571</v>
       </c>
@@ -4313,7 +4437,10 @@
       </c>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B30" s="6" t="s">
         <v>571</v>
       </c>
@@ -4322,7 +4449,10 @@
       </c>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B31" s="6" t="s">
         <v>571</v>
       </c>
@@ -4331,7 +4461,10 @@
       </c>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B32" s="6" t="s">
         <v>571</v>
       </c>
@@ -4340,7 +4473,10 @@
       </c>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B33" s="6" t="s">
         <v>571</v>
       </c>
@@ -4352,7 +4488,10 @@
       </c>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B34" s="6" t="s">
         <v>571</v>
       </c>
@@ -4361,7 +4500,10 @@
       </c>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B35" s="6" t="s">
         <v>571</v>
       </c>
@@ -4373,7 +4515,10 @@
       </c>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B36" s="6" t="s">
         <v>571</v>
       </c>
@@ -4382,7 +4527,7 @@
       </c>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>571</v>
       </c>
@@ -4391,7 +4536,7 @@
       </c>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
         <v>571</v>
       </c>
@@ -4400,7 +4545,7 @@
       </c>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>571</v>
       </c>
@@ -4409,7 +4554,7 @@
       </c>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>571</v>
       </c>
@@ -4418,7 +4563,7 @@
       </c>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
         <v>571</v>
       </c>
@@ -4427,7 +4572,7 @@
       </c>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>571</v>
       </c>
@@ -4436,7 +4581,7 @@
       </c>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
         <v>571</v>
       </c>
@@ -4444,7 +4589,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B44" s="6" t="s">
         <v>571</v>
       </c>
@@ -4452,7 +4600,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B45" s="6" t="s">
         <v>571</v>
       </c>
@@ -4460,7 +4611,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B46" s="6" t="s">
         <v>571</v>
       </c>
@@ -4468,7 +4622,10 @@
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B47" s="6" t="s">
         <v>571</v>
       </c>
@@ -4479,7 +4636,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B48" s="6" t="s">
         <v>571</v>
       </c>
@@ -4751,7 +4911,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B81" s="6" t="s">
         <v>571</v>
       </c>
@@ -4759,7 +4922,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B82" s="6" t="s">
         <v>571</v>
       </c>
@@ -4767,7 +4933,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B83" s="6" t="s">
         <v>571</v>
       </c>
@@ -4775,7 +4944,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B84" s="6" t="s">
         <v>571</v>
       </c>
@@ -4783,7 +4955,10 @@
         <v>288</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B85" s="6" t="s">
         <v>571</v>
       </c>
@@ -4791,7 +4966,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B86" s="6" t="s">
         <v>571</v>
       </c>
@@ -4799,7 +4977,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B87" s="6" t="s">
         <v>571</v>
       </c>
@@ -4807,76 +4988,100 @@
         <v>291</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B88" s="6" t="s">
         <v>571</v>
       </c>
       <c r="C88" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B89" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="C89" s="6" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B90" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="C90" s="6" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B91" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="C91" s="6" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B92" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="C92" s="6" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B96" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B93" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B94" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B95" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B96" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
@@ -4884,11 +5089,76 @@
         <v>571</v>
       </c>
       <c r="C97" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B100" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B102" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B103" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B104" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B105" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>1178</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6404,13 +6674,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF684AE-A18A-4B41-BCB8-49268F8FF3CF}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -6627,7 +6900,7 @@
         <v>220</v>
       </c>
       <c r="B16" t="s">
-        <v>611</v>
+        <v>1189</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>612</v>
@@ -6641,7 +6914,7 @@
         <v>221</v>
       </c>
       <c r="B17" t="s">
-        <v>611</v>
+        <v>1189</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>614</v>
@@ -6655,7 +6928,7 @@
         <v>222</v>
       </c>
       <c r="B18" t="s">
-        <v>611</v>
+        <v>1189</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>616</v>
@@ -6669,7 +6942,7 @@
         <v>223</v>
       </c>
       <c r="B19" t="s">
-        <v>611</v>
+        <v>1189</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>618</v>
@@ -6683,7 +6956,7 @@
         <v>224</v>
       </c>
       <c r="B20" t="s">
-        <v>611</v>
+        <v>1189</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>620</v>
@@ -6697,7 +6970,7 @@
         <v>225</v>
       </c>
       <c r="B21" t="s">
-        <v>611</v>
+        <v>1189</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>622</v>
@@ -6711,7 +6984,7 @@
         <v>226</v>
       </c>
       <c r="B22" t="s">
-        <v>611</v>
+        <v>1189</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>624</v>
@@ -6921,7 +7194,7 @@
         <v>241</v>
       </c>
       <c r="B37" t="s">
-        <v>611</v>
+        <v>1189</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>647</v>
@@ -6935,7 +7208,7 @@
         <v>242</v>
       </c>
       <c r="B38" t="s">
-        <v>611</v>
+        <v>1189</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>649</v>
@@ -6949,7 +7222,7 @@
         <v>243</v>
       </c>
       <c r="B39" t="s">
-        <v>611</v>
+        <v>1189</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>651</v>
@@ -6963,7 +7236,7 @@
         <v>244</v>
       </c>
       <c r="B40" t="s">
-        <v>611</v>
+        <v>1189</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>653</v>
@@ -6977,7 +7250,7 @@
         <v>245</v>
       </c>
       <c r="B41" t="s">
-        <v>611</v>
+        <v>1189</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>655</v>
@@ -6991,7 +7264,7 @@
         <v>246</v>
       </c>
       <c r="B42" t="s">
-        <v>611</v>
+        <v>1189</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>657</v>
@@ -7005,7 +7278,7 @@
         <v>247</v>
       </c>
       <c r="B43" t="s">
-        <v>611</v>
+        <v>1189</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>659</v>
@@ -7712,6 +7985,94 @@
       </c>
       <c r="D93" t="s">
         <v>736</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B94" t="s">
+        <v>587</v>
+      </c>
+      <c r="C94" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B95" t="s">
+        <v>587</v>
+      </c>
+      <c r="C95" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B96" t="s">
+        <v>602</v>
+      </c>
+      <c r="C96" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B97" t="s">
+        <v>602</v>
+      </c>
+      <c r="C97" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B98" t="s">
+        <v>587</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B99" t="s">
+        <v>587</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B100" t="s">
+        <v>602</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B101" t="s">
+        <v>602</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -7723,8 +8084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395A2342-B76D-F945-AFD5-0517DD67CEF9}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13057,8 +13418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D756D66F-C8F8-1846-9227-AF8942E6C619}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13095,22 +13456,22 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>1169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C4" s="5" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -13536,5 +13897,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/terms/teethTerms.xlsx
+++ b/terms/teethTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C18CCF6-5F92-964C-959C-5C0D1F346192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093EAF32-C8BA-0540-9A61-C44881F374B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
+    <workbookView xWindow="15260" yWindow="500" windowWidth="13540" windowHeight="16620" firstSheet="5" activeTab="8" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="molars" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="1190">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -3713,7 +3713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3734,6 +3734,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6676,7 +6677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF684AE-A18A-4B41-BCB8-49268F8FF3CF}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -8084,8 +8085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395A2342-B76D-F945-AFD5-0517DD67CEF9}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD82"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8120,6 +8121,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B2" s="6" t="s">
         <v>571</v>
       </c>
@@ -8128,6 +8132,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>571</v>
       </c>
@@ -8136,6 +8143,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>571</v>
       </c>
@@ -8144,6 +8154,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B5" s="6" t="s">
         <v>571</v>
       </c>
@@ -8152,6 +8165,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B6" s="6" t="s">
         <v>571</v>
       </c>
@@ -8160,6 +8176,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>571</v>
       </c>
@@ -8168,6 +8187,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>571</v>
       </c>
@@ -8176,6 +8198,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B9" s="6" t="s">
         <v>571</v>
       </c>
@@ -8184,6 +8209,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B10" s="6" t="s">
         <v>571</v>
       </c>
@@ -8192,6 +8220,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B11" s="6" t="s">
         <v>571</v>
       </c>
@@ -8200,6 +8231,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B12" s="6" t="s">
         <v>571</v>
       </c>
@@ -8208,6 +8242,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>571</v>
       </c>
@@ -8216,6 +8253,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>571</v>
       </c>
@@ -8224,6 +8264,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>571</v>
       </c>
@@ -8234,6 +8277,9 @@
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B16" s="6" t="s">
         <v>571</v>
       </c>
@@ -8244,7 +8290,10 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B17" s="6" t="s">
         <v>571</v>
       </c>
@@ -8254,7 +8303,10 @@
       <c r="H17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B18" s="6" t="s">
         <v>571</v>
       </c>
@@ -8264,7 +8316,10 @@
       <c r="H18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B19" s="6" t="s">
         <v>571</v>
       </c>
@@ -8275,7 +8330,10 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B20" s="6" t="s">
         <v>571</v>
       </c>
@@ -8286,7 +8344,10 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B21" s="6" t="s">
         <v>571</v>
       </c>
@@ -8296,7 +8357,10 @@
       <c r="H21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B22" s="6" t="s">
         <v>571</v>
       </c>
@@ -8306,7 +8370,10 @@
       <c r="H22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B23" s="6" t="s">
         <v>571</v>
       </c>
@@ -8316,7 +8383,10 @@
       <c r="H23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B24" s="6" t="s">
         <v>571</v>
       </c>
@@ -8326,7 +8396,10 @@
       <c r="H24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B25" s="6" t="s">
         <v>571</v>
       </c>
@@ -8334,7 +8407,10 @@
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B26" s="6" t="s">
         <v>571</v>
       </c>
@@ -8342,7 +8418,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B27" s="6" t="s">
         <v>571</v>
       </c>
@@ -8350,7 +8429,10 @@
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B28" s="6" t="s">
         <v>571</v>
       </c>
@@ -8358,7 +8440,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B29" s="6" t="s">
         <v>571</v>
       </c>
@@ -8367,7 +8452,10 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B30" s="6" t="s">
         <v>571</v>
       </c>
@@ -8376,7 +8464,10 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B31" s="6" t="s">
         <v>571</v>
       </c>
@@ -8385,7 +8476,10 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B32" s="6" t="s">
         <v>571</v>
       </c>
@@ -8394,7 +8488,10 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B33" s="6" t="s">
         <v>571</v>
       </c>
@@ -8406,7 +8503,10 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B34" s="6" t="s">
         <v>571</v>
       </c>
@@ -8415,7 +8515,10 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B35" s="6" t="s">
         <v>571</v>
       </c>
@@ -8427,7 +8530,10 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B36" s="6" t="s">
         <v>571</v>
       </c>
@@ -8436,7 +8542,10 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B37" s="6" t="s">
         <v>571</v>
       </c>
@@ -8445,7 +8554,10 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B38" s="6" t="s">
         <v>571</v>
       </c>
@@ -8454,7 +8566,10 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B39" s="6" t="s">
         <v>571</v>
       </c>
@@ -8463,7 +8578,10 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B40" s="6" t="s">
         <v>571</v>
       </c>
@@ -8475,7 +8593,10 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B41" s="6" t="s">
         <v>571</v>
       </c>
@@ -8484,7 +8605,10 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B42" s="6" t="s">
         <v>571</v>
       </c>
@@ -8496,7 +8620,10 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B43" s="6" t="s">
         <v>571</v>
       </c>
@@ -8505,7 +8632,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
         <v>571</v>
       </c>
@@ -8514,7 +8641,7 @@
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
         <v>571</v>
       </c>
@@ -8522,7 +8649,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
         <v>571</v>
       </c>
@@ -8530,7 +8657,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
         <v>571</v>
       </c>
@@ -8538,7 +8665,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
         <v>571</v>
       </c>
@@ -8546,7 +8673,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
         <v>571</v>
       </c>
@@ -8554,7 +8681,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
         <v>571</v>
       </c>
@@ -8562,7 +8689,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B51" s="6" t="s">
         <v>571</v>
       </c>
@@ -8570,7 +8700,10 @@
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B52" s="6" t="s">
         <v>571</v>
       </c>
@@ -8578,7 +8711,10 @@
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B53" s="6" t="s">
         <v>571</v>
       </c>
@@ -8586,7 +8722,10 @@
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B54" s="6" t="s">
         <v>571</v>
       </c>
@@ -8597,7 +8736,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B55" s="6" t="s">
         <v>571</v>
       </c>
@@ -8605,7 +8747,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B56" s="6" t="s">
         <v>571</v>
       </c>
@@ -8616,7 +8761,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B57" s="6" t="s">
         <v>571</v>
       </c>
@@ -8624,7 +8772,10 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B58" s="6" t="s">
         <v>571</v>
       </c>
@@ -8632,7 +8783,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>1172</v>
+      </c>
       <c r="B59" s="6" t="s">
         <v>571</v>
       </c>
@@ -8640,7 +8794,10 @@
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B60" s="6" t="s">
         <v>571</v>
       </c>
@@ -8648,7 +8805,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B61" s="6" t="s">
         <v>571</v>
       </c>
@@ -8659,7 +8819,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B62" s="6" t="s">
         <v>571</v>
       </c>
@@ -8667,7 +8830,10 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B63" s="6" t="s">
         <v>571</v>
       </c>
@@ -8678,7 +8844,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B64" s="6" t="s">
         <v>571</v>
       </c>
@@ -8686,7 +8855,10 @@
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B65" s="6" t="s">
         <v>571</v>
       </c>
@@ -8694,7 +8866,10 @@
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B66" s="6" t="s">
         <v>571</v>
       </c>
@@ -8702,7 +8877,10 @@
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B67" s="6" t="s">
         <v>571</v>
       </c>
@@ -8710,7 +8888,10 @@
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B68" s="6" t="s">
         <v>571</v>
       </c>
@@ -8718,7 +8899,10 @@
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B69" s="6" t="s">
         <v>571</v>
       </c>
@@ -8726,7 +8910,10 @@
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B70" s="6" t="s">
         <v>571</v>
       </c>
@@ -8734,7 +8921,10 @@
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B71" s="6" t="s">
         <v>571</v>
       </c>
@@ -8742,7 +8932,10 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B72" s="6" t="s">
         <v>571</v>
       </c>
@@ -8750,7 +8943,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B73" s="6" t="s">
         <v>571</v>
       </c>
@@ -8758,7 +8954,10 @@
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B74" s="6" t="s">
         <v>571</v>
       </c>
@@ -8766,7 +8965,10 @@
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B75" s="6" t="s">
         <v>571</v>
       </c>
@@ -8774,7 +8976,10 @@
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B76" s="6" t="s">
         <v>571</v>
       </c>
@@ -8782,7 +8987,10 @@
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B77" s="6" t="s">
         <v>571</v>
       </c>
@@ -8790,7 +8998,10 @@
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>1172</v>
+      </c>
       <c r="B78" s="6" t="s">
         <v>571</v>
       </c>
@@ -8798,7 +9009,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
         <v>571</v>
       </c>
@@ -8806,7 +9017,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
         <v>571</v>
       </c>
@@ -10044,7 +10255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAEFDBF-41FD-3947-89D1-12A935501BFE}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
@@ -13418,8 +13629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D756D66F-C8F8-1846-9227-AF8942E6C619}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13736,7 +13947,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>571</v>
       </c>
@@ -13744,7 +13955,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>571</v>
       </c>
@@ -13752,7 +13963,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>571</v>
       </c>
@@ -13760,7 +13971,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>571</v>
       </c>
@@ -13768,7 +13979,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>571</v>
       </c>
@@ -13776,7 +13987,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>571</v>
       </c>
@@ -13790,7 +14001,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>571</v>
       </c>
@@ -13798,7 +14009,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>571</v>
       </c>
@@ -13806,7 +14017,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>571</v>
       </c>
@@ -13814,7 +14025,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>571</v>
       </c>
@@ -13822,7 +14033,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>571</v>
       </c>
@@ -13830,7 +14041,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>571</v>
       </c>
@@ -13838,7 +14049,10 @@
         <v>570</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1172</v>
+      </c>
       <c r="B45" t="s">
         <v>571</v>
       </c>
@@ -13846,7 +14060,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1172</v>
+      </c>
       <c r="B46" t="s">
         <v>571</v>
       </c>
@@ -13854,7 +14071,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>571</v>
       </c>
@@ -13863,7 +14080,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>571</v>
       </c>

--- a/terms/teethTerms.xlsx
+++ b/terms/teethTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093EAF32-C8BA-0540-9A61-C44881F374B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2A79E8-EAF3-8D4E-AD8F-626016BE6A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15260" yWindow="500" windowWidth="13540" windowHeight="16620" firstSheet="5" activeTab="8" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
   </bookViews>

--- a/terms/teethTerms.xlsx
+++ b/terms/teethTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2A79E8-EAF3-8D4E-AD8F-626016BE6A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CACF3A0-D899-0841-9903-AAF57DDF78A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15260" yWindow="500" windowWidth="13540" windowHeight="16620" firstSheet="5" activeTab="8" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
+    <workbookView xWindow="4280" yWindow="500" windowWidth="13540" windowHeight="16620" firstSheet="5" activeTab="8" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="molars" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="1199">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -3640,6 +3640,33 @@
   </si>
   <si>
     <t>proximal-distal axis</t>
+  </si>
+  <si>
+    <t>Upper left tooth row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length of the cheektooth row </t>
+  </si>
+  <si>
+    <t>Upper right tooth row</t>
+  </si>
+  <si>
+    <t>Churchill and Boessenecker (2016)</t>
+  </si>
+  <si>
+    <t>Siversten (1954)</t>
+  </si>
+  <si>
+    <t>Brunner (2004)</t>
+  </si>
+  <si>
+    <t>C.LUTR</t>
+  </si>
+  <si>
+    <t>S.11</t>
+  </si>
+  <si>
+    <t>B.12</t>
   </si>
 </sst>
 </file>
@@ -13627,15 +13654,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D756D66F-C8F8-1846-9227-AF8942E6C619}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13660,18 +13688,27 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D2" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>571</v>
       </c>
@@ -13685,7 +13722,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>571</v>
       </c>
@@ -13693,7 +13730,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>571</v>
       </c>
@@ -13701,7 +13738,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>571</v>
       </c>
@@ -13709,7 +13746,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>571</v>
       </c>
@@ -13717,7 +13754,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>571</v>
       </c>
@@ -13725,7 +13762,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>571</v>
       </c>
@@ -13733,7 +13770,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>571</v>
       </c>
@@ -13741,7 +13778,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>571</v>
       </c>
@@ -13749,7 +13786,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>571</v>
       </c>
@@ -13760,7 +13797,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>571</v>
       </c>
@@ -13768,7 +13805,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>571</v>
       </c>
@@ -13776,7 +13813,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>571</v>
       </c>
@@ -14088,7 +14125,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>571</v>
       </c>
@@ -14096,7 +14133,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>571</v>
       </c>
@@ -14104,12 +14141,50 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>571</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1198</v>
       </c>
     </row>
   </sheetData>

--- a/terms/teethTerms.xlsx
+++ b/terms/teethTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE2711D-4486-B647-89F6-AA2C31A8F22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08801A48-C974-B44C-A9C9-27FC041E0AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" firstSheet="4" activeTab="8" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
+    <workbookView xWindow="1420" yWindow="940" windowWidth="14400" windowHeight="16620" firstSheet="4" activeTab="8" xr2:uid="{02AD6335-DCEB-E448-89DC-D4459AEF2DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="molars" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="1300">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -3706,6 +3706,270 @@
   </si>
   <si>
     <t>Length of tooth row</t>
+  </si>
+  <si>
+    <t>P3-4 upper length</t>
+  </si>
+  <si>
+    <t>P3-4 upper breadth</t>
+  </si>
+  <si>
+    <t>P3-4 upper base length</t>
+  </si>
+  <si>
+    <t>P3-4 upper height</t>
+  </si>
+  <si>
+    <t>P3-4 upper protocone length</t>
+  </si>
+  <si>
+    <t>M1-2 upper length</t>
+  </si>
+  <si>
+    <t>M1-2 upper breadth</t>
+  </si>
+  <si>
+    <t>M1-2 upper base length</t>
+  </si>
+  <si>
+    <t>M1-2 upper height</t>
+  </si>
+  <si>
+    <t>M1-2 upper protocone length</t>
+  </si>
+  <si>
+    <t>p3-4 lower length</t>
+  </si>
+  <si>
+    <t>p3-4 lower breadth</t>
+  </si>
+  <si>
+    <t>p3-4 lower base length</t>
+  </si>
+  <si>
+    <t>p3-4 lower height</t>
+  </si>
+  <si>
+    <t>p3-4 lower protocone length</t>
+  </si>
+  <si>
+    <t>m1-2 lower length</t>
+  </si>
+  <si>
+    <t>m1-2 lower breadth</t>
+  </si>
+  <si>
+    <t>m1-2 lower base length</t>
+  </si>
+  <si>
+    <t>m1-2 lower height</t>
+  </si>
+  <si>
+    <t>m1-2 lower  protocone length</t>
+  </si>
+  <si>
+    <t>P2 upper base length</t>
+  </si>
+  <si>
+    <t>P2 upper height</t>
+  </si>
+  <si>
+    <t>P2 upper protocone length</t>
+  </si>
+  <si>
+    <t>p2 lower base length</t>
+  </si>
+  <si>
+    <t>p2 lower height</t>
+  </si>
+  <si>
+    <t>p2 lower protocone length</t>
+  </si>
+  <si>
+    <t>M3 upper base length</t>
+  </si>
+  <si>
+    <t>M3 upper height</t>
+  </si>
+  <si>
+    <t>M3 upper protocone length</t>
+  </si>
+  <si>
+    <t>m3 lower base length</t>
+  </si>
+  <si>
+    <t>m3 lower height</t>
+  </si>
+  <si>
+    <t>m3 lower protocone length</t>
+  </si>
+  <si>
+    <t>dP3/P4 occlusal length</t>
+  </si>
+  <si>
+    <t>dP3/P4 occlusal breadth</t>
+  </si>
+  <si>
+    <t>dP3/P4 occlusal length of the protocone</t>
+  </si>
+  <si>
+    <t>P2 height</t>
+  </si>
+  <si>
+    <t>P2 occlusal length of the protocone</t>
+  </si>
+  <si>
+    <t>P3 height</t>
+  </si>
+  <si>
+    <t>P3 occlusal length of the protocone</t>
+  </si>
+  <si>
+    <t>P4 height</t>
+  </si>
+  <si>
+    <t>P4 occlusal length of the protocone</t>
+  </si>
+  <si>
+    <t>P3/P4 occlusal length</t>
+  </si>
+  <si>
+    <t>P3/P4 occlusal breadth</t>
+  </si>
+  <si>
+    <t>P3/P4 occlusal length of the protocone</t>
+  </si>
+  <si>
+    <t>P3/P4 height</t>
+  </si>
+  <si>
+    <t>M1 height</t>
+  </si>
+  <si>
+    <t>M1 occlusal length of the protocone</t>
+  </si>
+  <si>
+    <t>M2 height</t>
+  </si>
+  <si>
+    <t>M2 occlusal length of the protocone</t>
+  </si>
+  <si>
+    <t>M1/M2 occlusal length</t>
+  </si>
+  <si>
+    <t>M1/M2 occlusal breadth</t>
+  </si>
+  <si>
+    <t>M1/M2 occlusal length of the protocone</t>
+  </si>
+  <si>
+    <t>M1/M2 height</t>
+  </si>
+  <si>
+    <t>M3 occlusal length of the protocone</t>
+  </si>
+  <si>
+    <t>M3 height</t>
+  </si>
+  <si>
+    <t>p2 length of the postflexid</t>
+  </si>
+  <si>
+    <t>p2 length of the double-knot</t>
+  </si>
+  <si>
+    <t>p2 height</t>
+  </si>
+  <si>
+    <t>p3 occlusal length of the postflexid</t>
+  </si>
+  <si>
+    <t>p3 length of the postflexid</t>
+  </si>
+  <si>
+    <t>p3 length of the double-knot</t>
+  </si>
+  <si>
+    <t>p3 height</t>
+  </si>
+  <si>
+    <t>p4 occlusal length of the postflexid</t>
+  </si>
+  <si>
+    <t>p4 length of the postflexid</t>
+  </si>
+  <si>
+    <t>p4 length of the double-knot</t>
+  </si>
+  <si>
+    <t>p4 height</t>
+  </si>
+  <si>
+    <t>p3/p4 occlusal length</t>
+  </si>
+  <si>
+    <t>p3/p4 occlusal breadth</t>
+  </si>
+  <si>
+    <t>p3/p4 occlusal length of the postflexid</t>
+  </si>
+  <si>
+    <t>p3/p4 occlusal length of the double-knot</t>
+  </si>
+  <si>
+    <t>p3/p4 height</t>
+  </si>
+  <si>
+    <t>p3/p4 tooth height</t>
+  </si>
+  <si>
+    <t>m1 occlusal length of the postflexid</t>
+  </si>
+  <si>
+    <t>m1 length of the postflexid</t>
+  </si>
+  <si>
+    <t>m1 length of the double-knot</t>
+  </si>
+  <si>
+    <t>m2 occlusal length of the postflexid</t>
+  </si>
+  <si>
+    <t>m2 occlusal length of the double-knot</t>
+  </si>
+  <si>
+    <t>m2 length of the postflexid</t>
+  </si>
+  <si>
+    <t>m2 length of the double-knot</t>
+  </si>
+  <si>
+    <t>m1/m2 height</t>
+  </si>
+  <si>
+    <t>m1/m2 length of the postflexid</t>
+  </si>
+  <si>
+    <t>m1/m2 length of the double-knot</t>
+  </si>
+  <si>
+    <t>m1/m2 occlusal length</t>
+  </si>
+  <si>
+    <t>m1/m2 occlusal breadth</t>
+  </si>
+  <si>
+    <t>m3 occlusal length of the postflexid</t>
+  </si>
+  <si>
+    <t>m3 occlusal length of the double-knot</t>
+  </si>
+  <si>
+    <t>m3 length of the postflexid</t>
+  </si>
+  <si>
+    <t>m3 length of the double-knot</t>
   </si>
 </sst>
 </file>
@@ -4129,10 +4393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CA24E7-5FD2-BC4A-AA63-F254C54AF71B}">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112:C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5221,6 +5485,111 @@
       </c>
       <c r="C105" s="6" t="s">
         <v>1175</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>1299</v>
       </c>
     </row>
   </sheetData>
@@ -8169,10 +8538,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395A2342-B76D-F945-AFD5-0517DD67CEF9}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9140,10 +9509,104 @@
       </c>
     </row>
     <row r="83" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="5"/>
+      <c r="C83" t="s">
+        <v>1232</v>
+      </c>
     </row>
     <row r="84" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="5"/>
+      <c r="C84" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>1269</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13845,11 +14308,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D756D66F-C8F8-1846-9227-AF8942E6C619}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14460,50 +14923,285 @@
         <v>580</v>
       </c>
     </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1193</v>
+      </c>
+    </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="C54" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I54" t="s">
-        <v>1191</v>
-      </c>
-      <c r="J54" t="s">
-        <v>1192</v>
-      </c>
-      <c r="K54" t="s">
-        <v>1193</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="C55" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I55" t="s">
-        <v>1191</v>
-      </c>
-      <c r="J55" t="s">
-        <v>1192</v>
-      </c>
-      <c r="K55" t="s">
-        <v>1193</v>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>1295</v>
       </c>
     </row>
   </sheetData>
